--- a/xcel_data/aeei.xlsx
+++ b/xcel_data/aeei.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="14730" windowHeight="12090" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="14730" windowHeight="12090" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="AEEI" sheetId="8" r:id="rId1"/>
@@ -2115,11 +2115,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="395223376"/>
-        <c:axId val="395223936"/>
+        <c:axId val="455259936"/>
+        <c:axId val="455260496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="395223376"/>
+        <c:axId val="455259936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2130,7 +2130,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="395223936"/>
+        <c:crossAx val="455260496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2138,7 +2138,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="395223936"/>
+        <c:axId val="455260496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.05"/>
@@ -2151,7 +2151,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="395223376"/>
+        <c:crossAx val="455259936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -2732,11 +2732,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="395229536"/>
-        <c:axId val="395230096"/>
+        <c:axId val="455265536"/>
+        <c:axId val="455266096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="395229536"/>
+        <c:axId val="455265536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2747,7 +2747,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="395230096"/>
+        <c:crossAx val="455266096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2755,7 +2755,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="395230096"/>
+        <c:axId val="455266096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.05"/>
@@ -2768,7 +2768,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="395229536"/>
+        <c:crossAx val="455265536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -3349,11 +3349,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="305976672"/>
-        <c:axId val="305977232"/>
+        <c:axId val="393097520"/>
+        <c:axId val="393096400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="305976672"/>
+        <c:axId val="393097520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3364,7 +3364,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="305977232"/>
+        <c:crossAx val="393096400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3372,7 +3372,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="305977232"/>
+        <c:axId val="393096400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.05"/>
@@ -3385,7 +3385,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="305976672"/>
+        <c:crossAx val="393097520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -3966,11 +3966,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="305969952"/>
-        <c:axId val="305970512"/>
+        <c:axId val="400259664"/>
+        <c:axId val="353249888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="305969952"/>
+        <c:axId val="400259664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3981,7 +3981,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="305970512"/>
+        <c:crossAx val="353249888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3989,7 +3989,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="305970512"/>
+        <c:axId val="353249888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.05"/>
@@ -4002,7 +4002,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="305969952"/>
+        <c:crossAx val="400259664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -4379,11 +4379,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="189797072"/>
-        <c:axId val="391079904"/>
+        <c:axId val="351805792"/>
+        <c:axId val="351806352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="189797072"/>
+        <c:axId val="351805792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4393,7 +4393,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="391079904"/>
+        <c:crossAx val="351806352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4401,7 +4401,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="391079904"/>
+        <c:axId val="351806352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4412,7 +4412,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189797072"/>
+        <c:crossAx val="351805792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4788,11 +4788,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="190940624"/>
-        <c:axId val="190941184"/>
+        <c:axId val="455293552"/>
+        <c:axId val="455294112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="190940624"/>
+        <c:axId val="455293552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4802,7 +4802,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190941184"/>
+        <c:crossAx val="455294112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4810,7 +4810,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190941184"/>
+        <c:axId val="455294112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4821,7 +4821,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190940624"/>
+        <c:crossAx val="455293552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5197,11 +5197,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="190945104"/>
-        <c:axId val="190945664"/>
+        <c:axId val="431217104"/>
+        <c:axId val="431217664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="190945104"/>
+        <c:axId val="431217104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5211,7 +5211,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190945664"/>
+        <c:crossAx val="431217664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5219,7 +5219,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190945664"/>
+        <c:axId val="431217664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5230,7 +5230,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190945104"/>
+        <c:crossAx val="431217104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5606,11 +5606,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="190949584"/>
-        <c:axId val="190950144"/>
+        <c:axId val="352952368"/>
+        <c:axId val="352952928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="190949584"/>
+        <c:axId val="352952368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5620,7 +5620,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190950144"/>
+        <c:crossAx val="352952928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5628,7 +5628,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190950144"/>
+        <c:axId val="352952928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5639,7 +5639,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190949584"/>
+        <c:crossAx val="352952368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6015,11 +6015,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="190954064"/>
-        <c:axId val="190954624"/>
+        <c:axId val="183941568"/>
+        <c:axId val="183942128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="190954064"/>
+        <c:axId val="183941568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6029,7 +6029,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190954624"/>
+        <c:crossAx val="183942128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6037,7 +6037,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190954624"/>
+        <c:axId val="183942128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6048,7 +6048,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190954064"/>
+        <c:crossAx val="183941568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -31941,10 +31941,10 @@
   <sheetPr codeName="Tabelle7"/>
   <dimension ref="A2:N280"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J29" sqref="J29"/>
-      <selection pane="bottomLeft" activeCell="D141" sqref="D141"/>
+      <selection pane="bottomLeft" activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31997,31 +31997,31 @@
       </c>
       <c r="E3" s="137">
         <f t="shared" ref="E3:K18" si="0">E146*E$140</f>
-        <v>0.61071915636473051</v>
+        <v>0.67500538335049154</v>
       </c>
       <c r="F3" s="137">
         <f t="shared" si="0"/>
-        <v>0.58814938097583336</v>
+        <v>0.67557699166143026</v>
       </c>
       <c r="G3" s="137">
         <f t="shared" si="0"/>
-        <v>0.5902158517738566</v>
+        <v>0.64998454562437369</v>
       </c>
       <c r="H3" s="137">
         <f t="shared" si="0"/>
-        <v>0.71686729500319901</v>
+        <v>0.80220863964643696</v>
       </c>
       <c r="I3" s="137">
         <f t="shared" si="0"/>
-        <v>0.79422342234223409</v>
+        <v>0.8994819481948193</v>
       </c>
       <c r="J3" s="137">
         <f t="shared" si="0"/>
-        <v>0.79567956795679562</v>
+        <v>0.92829282928292822</v>
       </c>
       <c r="K3" s="138">
         <f t="shared" si="0"/>
-        <v>0.81861386138613867</v>
+        <v>0.94140594059405935</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -32040,31 +32040,31 @@
       </c>
       <c r="E4" s="134">
         <f t="shared" si="0"/>
-        <v>0.61071915636473051</v>
+        <v>0.67500538335049154</v>
       </c>
       <c r="F4" s="134">
         <f t="shared" si="0"/>
-        <v>0.59468437409778707</v>
+        <v>0.68308340267989065</v>
       </c>
       <c r="G4" s="134">
         <f t="shared" si="0"/>
-        <v>0.5902158517738566</v>
+        <v>0.64998454562437369</v>
       </c>
       <c r="H4" s="134">
         <f t="shared" si="0"/>
-        <v>0.71686729500319901</v>
+        <v>0.80220863964643696</v>
       </c>
       <c r="I4" s="134">
         <f t="shared" si="0"/>
-        <v>0.79422342234223409</v>
+        <v>0.8994819481948193</v>
       </c>
       <c r="J4" s="134">
         <f t="shared" si="0"/>
-        <v>0.82376237623762372</v>
+        <v>0.96105610561056098</v>
       </c>
       <c r="K4" s="140">
         <f t="shared" si="0"/>
-        <v>0.89501782178217826</v>
+        <v>1.0292704950495049</v>
       </c>
       <c r="N4" s="134">
         <v>1.06</v>
@@ -32086,31 +32086,31 @@
       </c>
       <c r="E5" s="135">
         <f t="shared" si="0"/>
-        <v>0.61071915636473051</v>
+        <v>0.67500538335049154</v>
       </c>
       <c r="F5" s="135">
         <f t="shared" si="0"/>
-        <v>0.57507939473192593</v>
+        <v>0.66056416962450948</v>
       </c>
       <c r="G5" s="135">
         <f t="shared" si="0"/>
-        <v>0.5902158517738566</v>
+        <v>0.64998454562437369</v>
       </c>
       <c r="H5" s="135">
         <f t="shared" si="0"/>
-        <v>0.71686729500319901</v>
+        <v>0.80220863964643696</v>
       </c>
       <c r="I5" s="135">
         <f t="shared" si="0"/>
-        <v>0.79422342234223409</v>
+        <v>0.8994819481948193</v>
       </c>
       <c r="J5" s="135">
         <f t="shared" si="0"/>
-        <v>0.82376237623762372</v>
+        <v>0.96105610561056098</v>
       </c>
       <c r="K5" s="142">
         <f t="shared" si="0"/>
-        <v>0.88410297029702967</v>
+        <v>1.0167184158415841</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -32129,31 +32129,31 @@
       </c>
       <c r="E6" s="134">
         <f t="shared" si="0"/>
-        <v>0.61071915636473051</v>
+        <v>0.67500538335049154</v>
       </c>
       <c r="F6" s="134">
         <f t="shared" si="0"/>
-        <v>0.61755685002462501</v>
+        <v>0.70935584124450168</v>
       </c>
       <c r="G6" s="134">
         <f t="shared" si="0"/>
-        <v>0.5902158517738566</v>
+        <v>0.64998454562437369</v>
       </c>
       <c r="H6" s="134">
         <f t="shared" si="0"/>
-        <v>0.71686729500319901</v>
+        <v>0.80220863964643696</v>
       </c>
       <c r="I6" s="134">
         <f t="shared" si="0"/>
-        <v>0.79422342234223409</v>
+        <v>0.8994819481948193</v>
       </c>
       <c r="J6" s="134">
         <f t="shared" si="0"/>
-        <v>0.82376237623762372</v>
+        <v>0.96105610561056098</v>
       </c>
       <c r="K6" s="140">
         <f t="shared" si="0"/>
-        <v>0.93867722772277229</v>
+        <v>1.079478811881188</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -32172,31 +32172,31 @@
       </c>
       <c r="E7" s="135">
         <f t="shared" si="0"/>
-        <v>0.61071915636473051</v>
+        <v>0.67500538335049154</v>
       </c>
       <c r="F7" s="135">
         <f t="shared" si="0"/>
-        <v>0.60121936721974079</v>
+        <v>0.69058981369835082</v>
       </c>
       <c r="G7" s="135">
         <f t="shared" si="0"/>
-        <v>0.5902158517738566</v>
+        <v>0.64998454562437369</v>
       </c>
       <c r="H7" s="135">
         <f t="shared" si="0"/>
-        <v>0.68603429306757735</v>
+        <v>0.76770504224228897</v>
       </c>
       <c r="I7" s="135">
         <f t="shared" si="0"/>
-        <v>0.79422342234223409</v>
+        <v>0.8994819481948193</v>
       </c>
       <c r="J7" s="135">
         <f t="shared" si="0"/>
-        <v>0.82376237623762372</v>
+        <v>0.96105610561056098</v>
       </c>
       <c r="K7" s="142">
         <f t="shared" si="0"/>
-        <v>0.8731881188118813</v>
+        <v>1.0041663366336635</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -32215,31 +32215,31 @@
       </c>
       <c r="E8" s="134">
         <f t="shared" si="0"/>
-        <v>0.58081279826095822</v>
+        <v>0.64195098755158531</v>
       </c>
       <c r="F8" s="134">
         <f t="shared" si="0"/>
-        <v>0.58814938097583336</v>
+        <v>0.67557699166143026</v>
       </c>
       <c r="G8" s="134">
         <f t="shared" si="0"/>
-        <v>0.56510028361326703</v>
+        <v>0.62232562878929398</v>
       </c>
       <c r="H8" s="134">
         <f t="shared" si="0"/>
-        <v>0.71686729500319901</v>
+        <v>0.80220863964643696</v>
       </c>
       <c r="I8" s="134">
         <f t="shared" si="0"/>
-        <v>0.79422342234223409</v>
+        <v>0.8994819481948193</v>
       </c>
       <c r="J8" s="134">
         <f t="shared" si="0"/>
-        <v>0.82376237623762372</v>
+        <v>0.96105610561056098</v>
       </c>
       <c r="K8" s="140">
         <f t="shared" si="0"/>
-        <v>0.9277623762376237</v>
+        <v>1.0669267326732672</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -32258,31 +32258,31 @@
       </c>
       <c r="E9" s="135">
         <f t="shared" si="0"/>
-        <v>0.61308017594212239</v>
+        <v>0.67761493130445105</v>
       </c>
       <c r="F9" s="135">
         <f t="shared" si="0"/>
-        <v>0.58814938097583336</v>
+        <v>0.67557699166143026</v>
       </c>
       <c r="G9" s="135">
         <f t="shared" si="0"/>
-        <v>0.56510028361326703</v>
+        <v>0.62232562878929398</v>
       </c>
       <c r="H9" s="135">
         <f t="shared" si="0"/>
-        <v>0.68603429306757735</v>
+        <v>0.76770504224228897</v>
       </c>
       <c r="I9" s="135">
         <f t="shared" si="0"/>
-        <v>0.74242624262426227</v>
+        <v>0.84082008200820069</v>
       </c>
       <c r="J9" s="135">
         <f t="shared" si="0"/>
-        <v>0.74887488748874886</v>
+        <v>0.87368736873687369</v>
       </c>
       <c r="K9" s="142">
         <f t="shared" si="0"/>
-        <v>0.82952871287128727</v>
+        <v>0.95395801980198025</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -32301,31 +32301,31 @@
       </c>
       <c r="E10" s="134">
         <f t="shared" si="0"/>
-        <v>0.59371974933342386</v>
+        <v>0.65621656505273163</v>
       </c>
       <c r="F10" s="134">
         <f t="shared" si="0"/>
-        <v>0.52279944975629633</v>
+        <v>0.60051288147682691</v>
       </c>
       <c r="G10" s="134">
         <f t="shared" si="0"/>
-        <v>0.47091690301105582</v>
+        <v>0.51860469065774495</v>
       </c>
       <c r="H10" s="134">
         <f t="shared" si="0"/>
-        <v>0.61666003871242925</v>
+        <v>0.69007194808295658</v>
       </c>
       <c r="I10" s="134">
         <f t="shared" si="0"/>
-        <v>0.67336333633363321</v>
+        <v>0.76260426042604246</v>
       </c>
       <c r="J10" s="134">
         <f t="shared" si="0"/>
-        <v>0.6739873987398739</v>
+        <v>0.78631863186318618</v>
       </c>
       <c r="K10" s="140">
         <f t="shared" si="0"/>
-        <v>0.78041188118811899</v>
+        <v>0.89747366336633683</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -32344,31 +32344,31 @@
       </c>
       <c r="E11" s="135">
         <f t="shared" si="0"/>
-        <v>0.59371974933342386</v>
+        <v>0.65621656505273163</v>
       </c>
       <c r="F11" s="135">
         <f t="shared" si="0"/>
-        <v>0.52279944975629633</v>
+        <v>0.60051288147682691</v>
       </c>
       <c r="G11" s="135">
         <f t="shared" si="0"/>
-        <v>0.47091690301105582</v>
+        <v>0.51860469065774495</v>
       </c>
       <c r="H11" s="135">
         <f t="shared" si="0"/>
-        <v>0.61666003871242925</v>
+        <v>0.69007194808295658</v>
       </c>
       <c r="I11" s="135">
         <f t="shared" si="0"/>
-        <v>0.67336333633363321</v>
+        <v>0.76260426042604246</v>
       </c>
       <c r="J11" s="135">
         <f t="shared" si="0"/>
-        <v>0.6739873987398739</v>
+        <v>0.78631863186318618</v>
       </c>
       <c r="K11" s="142">
         <f t="shared" si="0"/>
-        <v>0.78041188118811899</v>
+        <v>0.89747366336633683</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -32387,31 +32387,31 @@
       </c>
       <c r="E12" s="134">
         <f t="shared" si="0"/>
-        <v>0.60559534929479653</v>
+        <v>0.66934222816793298</v>
       </c>
       <c r="F12" s="134">
         <f t="shared" si="0"/>
-        <v>0.58814938097583336</v>
+        <v>0.67557699166143026</v>
       </c>
       <c r="G12" s="134">
         <f t="shared" si="0"/>
-        <v>0.50231136321179293</v>
+        <v>0.55317833670159466</v>
       </c>
       <c r="H12" s="134">
         <f t="shared" si="0"/>
-        <v>0.53957753387337559</v>
+        <v>0.60381295457258688</v>
       </c>
       <c r="I12" s="134">
         <f t="shared" si="0"/>
-        <v>0.63927459412607957</v>
+        <v>0.72399773310664428</v>
       </c>
       <c r="J12" s="134">
         <f t="shared" si="0"/>
-        <v>0.68632537319222087</v>
+        <v>0.80071293539092436</v>
       </c>
       <c r="K12" s="140">
         <f t="shared" si="0"/>
-        <v>0.79078099009900993</v>
+        <v>0.90939813861386132</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -32430,31 +32430,31 @@
       </c>
       <c r="E13" s="135">
         <f t="shared" si="0"/>
-        <v>0.61308017594212239</v>
+        <v>0.67761493130445105</v>
       </c>
       <c r="F13" s="135">
         <f t="shared" si="0"/>
-        <v>0.59458275084129053</v>
+        <v>0.68296667326364446</v>
       </c>
       <c r="G13" s="135">
         <f t="shared" si="0"/>
-        <v>0.54300340620523901</v>
+        <v>0.59799109290956698</v>
       </c>
       <c r="H13" s="135">
         <f t="shared" si="0"/>
-        <v>0.62811498200173832</v>
+        <v>0.70289057509718333</v>
       </c>
       <c r="I13" s="135">
         <f t="shared" si="0"/>
-        <v>0.65714939087436608</v>
+        <v>0.74424147882157121</v>
       </c>
       <c r="J13" s="135">
         <f t="shared" si="0"/>
-        <v>0.65999701737857963</v>
+        <v>0.76999652027500953</v>
       </c>
       <c r="K13" s="142">
         <f t="shared" si="0"/>
-        <v>0.70668820303874091</v>
+        <v>0.81269143349455197</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -32473,31 +32473,31 @@
       </c>
       <c r="E14" s="134">
         <f t="shared" si="0"/>
-        <v>0.61071915636473051</v>
+        <v>0.67500538335049154</v>
       </c>
       <c r="F14" s="134">
         <f t="shared" si="0"/>
-        <v>0.61755685002462501</v>
+        <v>0.70935584124450168</v>
       </c>
       <c r="G14" s="134">
         <f t="shared" si="0"/>
-        <v>0.5902158517738566</v>
+        <v>0.64998454562437369</v>
       </c>
       <c r="H14" s="134">
         <f t="shared" si="0"/>
-        <v>0.71686729500319901</v>
+        <v>0.80220863964643696</v>
       </c>
       <c r="I14" s="134">
         <f t="shared" si="0"/>
-        <v>0.79422342234223409</v>
+        <v>0.8994819481948193</v>
       </c>
       <c r="J14" s="134">
         <f t="shared" si="0"/>
-        <v>0.82376237623762372</v>
+        <v>0.96105610561056098</v>
       </c>
       <c r="K14" s="140">
         <f t="shared" si="0"/>
-        <v>0.93867722772277229</v>
+        <v>1.079478811881188</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -32516,31 +32516,31 @@
       </c>
       <c r="E15" s="135">
         <f t="shared" si="0"/>
-        <v>0.61071915636473051</v>
+        <v>0.67500538335049154</v>
       </c>
       <c r="F15" s="135">
         <f t="shared" si="0"/>
-        <v>0.61755685002462501</v>
+        <v>0.70935584124450168</v>
       </c>
       <c r="G15" s="135">
         <f t="shared" si="0"/>
-        <v>0.5902158517738566</v>
+        <v>0.64998454562437369</v>
       </c>
       <c r="H15" s="135">
         <f t="shared" si="0"/>
-        <v>0.71686729500319901</v>
+        <v>0.80220863964643696</v>
       </c>
       <c r="I15" s="135">
         <f t="shared" si="0"/>
-        <v>0.79422342234223409</v>
+        <v>0.8994819481948193</v>
       </c>
       <c r="J15" s="135">
         <f t="shared" si="0"/>
-        <v>0.82376237623762372</v>
+        <v>0.96105610561056098</v>
       </c>
       <c r="K15" s="142">
         <f t="shared" si="0"/>
-        <v>0.93867722772277229</v>
+        <v>1.079478811881188</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -32559,31 +32559,31 @@
       </c>
       <c r="E16" s="134">
         <f t="shared" si="0"/>
-        <v>0.61071915636473051</v>
+        <v>0.67500538335049154</v>
       </c>
       <c r="F16" s="134">
         <f t="shared" si="0"/>
-        <v>0.61755685002462501</v>
+        <v>0.70935584124450168</v>
       </c>
       <c r="G16" s="134">
         <f t="shared" si="0"/>
-        <v>0.5902158517738566</v>
+        <v>0.64998454562437369</v>
       </c>
       <c r="H16" s="134">
         <f t="shared" si="0"/>
-        <v>0.71686729500319901</v>
+        <v>0.80220863964643696</v>
       </c>
       <c r="I16" s="134">
         <f t="shared" si="0"/>
-        <v>0.79422342234223409</v>
+        <v>0.8994819481948193</v>
       </c>
       <c r="J16" s="134">
         <f t="shared" si="0"/>
-        <v>0.82376237623762372</v>
+        <v>0.96105610561056098</v>
       </c>
       <c r="K16" s="140">
         <f t="shared" si="0"/>
-        <v>0.93867722772277229</v>
+        <v>1.079478811881188</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32602,31 +32602,31 @@
       </c>
       <c r="E17" s="135">
         <f t="shared" si="0"/>
-        <v>0.61071915636473051</v>
+        <v>0.67500538335049154</v>
       </c>
       <c r="F17" s="135">
         <f t="shared" si="0"/>
-        <v>0.61755685002462501</v>
+        <v>0.70935584124450168</v>
       </c>
       <c r="G17" s="135">
         <f t="shared" si="0"/>
-        <v>0.5902158517738566</v>
+        <v>0.64998454562437369</v>
       </c>
       <c r="H17" s="135">
         <f t="shared" si="0"/>
-        <v>0.71686729500319901</v>
+        <v>0.80220863964643696</v>
       </c>
       <c r="I17" s="135">
         <f t="shared" si="0"/>
-        <v>0.79422342234223409</v>
+        <v>0.8994819481948193</v>
       </c>
       <c r="J17" s="135">
         <f t="shared" si="0"/>
-        <v>0.82376237623762372</v>
+        <v>0.96105610561056098</v>
       </c>
       <c r="K17" s="142">
         <f t="shared" si="0"/>
-        <v>0.93867722772277229</v>
+        <v>1.079478811881188</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -32645,31 +32645,31 @@
       </c>
       <c r="E18" s="159">
         <f t="shared" si="0"/>
-        <v>0.54854542057979372</v>
+        <v>0.60628704379871934</v>
       </c>
       <c r="F18" s="159">
         <f t="shared" si="0"/>
-        <v>0.52279944975629633</v>
+        <v>0.60051288147682691</v>
       </c>
       <c r="G18" s="159">
         <f t="shared" si="0"/>
-        <v>0.43952244281031877</v>
+        <v>0.48403104461389534</v>
       </c>
       <c r="H18" s="159">
         <f t="shared" si="0"/>
-        <v>0.49332803096994338</v>
+        <v>0.55205755846636517</v>
       </c>
       <c r="I18" s="159">
         <f t="shared" si="0"/>
-        <v>0.54387038703870394</v>
+        <v>0.61594959495949597</v>
       </c>
       <c r="J18" s="159">
         <f t="shared" si="0"/>
-        <v>0.58037803780378039</v>
+        <v>0.67710771077107723</v>
       </c>
       <c r="K18" s="160">
         <f t="shared" si="0"/>
-        <v>0.65489108910891092</v>
+        <v>0.75312475247524746</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -32688,31 +32688,31 @@
       </c>
       <c r="E19" s="135">
         <f t="shared" ref="E19:K34" si="2">E162*E$140</f>
-        <v>0.54854542057979372</v>
+        <v>0.60628704379871934</v>
       </c>
       <c r="F19" s="135">
         <f t="shared" si="2"/>
-        <v>0.52279944975629633</v>
+        <v>0.60051288147682691</v>
       </c>
       <c r="G19" s="135">
         <f t="shared" si="2"/>
-        <v>0.43952244281031877</v>
+        <v>0.48403104461389534</v>
       </c>
       <c r="H19" s="135">
         <f t="shared" si="2"/>
-        <v>0.49332803096994338</v>
+        <v>0.55205755846636517</v>
       </c>
       <c r="I19" s="135">
         <f t="shared" si="2"/>
-        <v>0.54387038703870394</v>
+        <v>0.61594959495949597</v>
       </c>
       <c r="J19" s="135">
         <f t="shared" si="2"/>
-        <v>0.58037803780378039</v>
+        <v>0.67710771077107723</v>
       </c>
       <c r="K19" s="142">
         <f t="shared" si="2"/>
-        <v>0.65489108910891092</v>
+        <v>0.75312475247524746</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -32731,31 +32731,31 @@
       </c>
       <c r="E20" s="134">
         <f t="shared" si="2"/>
-        <v>0.54854542057979372</v>
+        <v>0.60628704379871934</v>
       </c>
       <c r="F20" s="134">
         <f t="shared" si="2"/>
-        <v>0.52279944975629633</v>
+        <v>0.60051288147682691</v>
       </c>
       <c r="G20" s="134">
         <f t="shared" si="2"/>
-        <v>0.47091690301105582</v>
+        <v>0.51860469065774495</v>
       </c>
       <c r="H20" s="134">
         <f t="shared" si="2"/>
-        <v>0.52416103290556493</v>
+        <v>0.58656115587051305</v>
       </c>
       <c r="I20" s="134">
         <f t="shared" si="2"/>
-        <v>0.5784018401840183</v>
+        <v>0.65505750575057498</v>
       </c>
       <c r="J20" s="134">
         <f t="shared" si="2"/>
-        <v>0.54293429342934285</v>
+        <v>0.63342334233423336</v>
       </c>
       <c r="K20" s="140">
         <f t="shared" si="2"/>
-        <v>0.56757227722772285</v>
+        <v>0.65270811881188118</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -32774,31 +32774,31 @@
       </c>
       <c r="E21" s="135">
         <f t="shared" si="2"/>
-        <v>0.54854542057979372</v>
+        <v>0.60628704379871934</v>
       </c>
       <c r="F21" s="135">
         <f t="shared" si="2"/>
-        <v>0.52279944975629633</v>
+        <v>0.60051288147682691</v>
       </c>
       <c r="G21" s="135">
         <f t="shared" si="2"/>
-        <v>0.43952244281031877</v>
+        <v>0.48403104461389534</v>
       </c>
       <c r="H21" s="135">
         <f t="shared" si="2"/>
-        <v>0.49332803096994338</v>
+        <v>0.55205755846636517</v>
       </c>
       <c r="I21" s="135">
         <f t="shared" si="2"/>
-        <v>0.54387038703870394</v>
+        <v>0.61594959495949597</v>
       </c>
       <c r="J21" s="135">
         <f t="shared" si="2"/>
-        <v>0.58037803780378039</v>
+        <v>0.67710771077107723</v>
       </c>
       <c r="K21" s="142">
         <f t="shared" si="2"/>
-        <v>0.65489108910891092</v>
+        <v>0.75312475247524746</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -32817,31 +32817,31 @@
       </c>
       <c r="E22" s="134">
         <f t="shared" si="2"/>
-        <v>0.54854542057979372</v>
+        <v>0.60628704379871934</v>
       </c>
       <c r="F22" s="134">
         <f t="shared" si="2"/>
-        <v>0.52279944975629633</v>
+        <v>0.60051288147682691</v>
       </c>
       <c r="G22" s="134">
         <f t="shared" si="2"/>
-        <v>0.43952244281031877</v>
+        <v>0.48403104461389534</v>
       </c>
       <c r="H22" s="134">
         <f t="shared" si="2"/>
-        <v>0.49332803096994338</v>
+        <v>0.55205755846636517</v>
       </c>
       <c r="I22" s="134">
         <f t="shared" si="2"/>
-        <v>0.54387038703870394</v>
+        <v>0.61594959495949597</v>
       </c>
       <c r="J22" s="134">
         <f t="shared" si="2"/>
-        <v>0.54293429342934285</v>
+        <v>0.63342334233423336</v>
       </c>
       <c r="K22" s="140">
         <f t="shared" si="2"/>
-        <v>0.61123168316831678</v>
+        <v>0.70291643564356421</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -32860,31 +32860,31 @@
       </c>
       <c r="E23" s="135">
         <f t="shared" si="2"/>
-        <v>0.54854542057979372</v>
+        <v>0.60628704379871934</v>
       </c>
       <c r="F23" s="135">
         <f t="shared" si="2"/>
-        <v>0.52279944975629633</v>
+        <v>0.60051288147682691</v>
       </c>
       <c r="G23" s="135">
         <f t="shared" si="2"/>
-        <v>0.43952244281031877</v>
+        <v>0.48403104461389534</v>
       </c>
       <c r="H23" s="135">
         <f t="shared" si="2"/>
-        <v>0.49332803096994338</v>
+        <v>0.55205755846636517</v>
       </c>
       <c r="I23" s="135">
         <f t="shared" si="2"/>
-        <v>0.54387038703870394</v>
+        <v>0.61594959495949597</v>
       </c>
       <c r="J23" s="135">
         <f t="shared" si="2"/>
-        <v>0.58037803780378039</v>
+        <v>0.67710771077107723</v>
       </c>
       <c r="K23" s="142">
         <f t="shared" si="2"/>
-        <v>0.65489108910891092</v>
+        <v>0.75312475247524746</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -32903,31 +32903,31 @@
       </c>
       <c r="E24" s="134">
         <f t="shared" si="2"/>
-        <v>0.54854542057979372</v>
+        <v>0.60628704379871934</v>
       </c>
       <c r="F24" s="134">
         <f t="shared" si="2"/>
-        <v>0.52279944975629633</v>
+        <v>0.60051288147682691</v>
       </c>
       <c r="G24" s="134">
         <f t="shared" si="2"/>
-        <v>0.43952244281031877</v>
+        <v>0.48403104461389534</v>
       </c>
       <c r="H24" s="134">
         <f t="shared" si="2"/>
-        <v>0.49332803096994338</v>
+        <v>0.55205755846636517</v>
       </c>
       <c r="I24" s="134">
         <f t="shared" si="2"/>
-        <v>0.54387038703870394</v>
+        <v>0.61594959495949597</v>
       </c>
       <c r="J24" s="134">
         <f t="shared" si="2"/>
-        <v>0.58037803780378039</v>
+        <v>0.67710771077107723</v>
       </c>
       <c r="K24" s="140">
         <f t="shared" si="2"/>
-        <v>0.65489108910891092</v>
+        <v>0.75312475247524746</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -32946,31 +32946,31 @@
       </c>
       <c r="E25" s="135">
         <f t="shared" si="2"/>
-        <v>0.5617561549406479</v>
+        <v>0.62088838177650552</v>
       </c>
       <c r="F25" s="135">
         <f t="shared" si="2"/>
-        <v>0.51958294783483261</v>
+        <v>0.59681825089136176</v>
       </c>
       <c r="G25" s="135">
         <f t="shared" si="2"/>
-        <v>0.45084130307309023</v>
+        <v>0.49649611857416265</v>
       </c>
       <c r="H25" s="135">
         <f t="shared" si="2"/>
-        <v>0.49393710377561406</v>
+        <v>0.55273913993937762</v>
       </c>
       <c r="I25" s="135">
         <f t="shared" si="2"/>
-        <v>0.54387038703870394</v>
+        <v>0.61594959495949597</v>
       </c>
       <c r="J25" s="135">
         <f t="shared" si="2"/>
-        <v>0.55229522952295229</v>
+        <v>0.64434443444344425</v>
       </c>
       <c r="K25" s="142">
         <f t="shared" si="2"/>
-        <v>0.65489108910891092</v>
+        <v>0.75312475247524746</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -32989,31 +32989,31 @@
       </c>
       <c r="E26" s="134">
         <f t="shared" si="2"/>
-        <v>0.5617561549406479</v>
+        <v>0.62088838177650552</v>
       </c>
       <c r="F26" s="134">
         <f t="shared" si="2"/>
-        <v>0.51958294783483261</v>
+        <v>0.59681825089136176</v>
       </c>
       <c r="G26" s="134">
         <f t="shared" si="2"/>
-        <v>0.45084130307309023</v>
+        <v>0.49649611857416265</v>
       </c>
       <c r="H26" s="134">
         <f t="shared" si="2"/>
-        <v>0.49393710377561406</v>
+        <v>0.55273913993937762</v>
       </c>
       <c r="I26" s="134">
         <f t="shared" si="2"/>
-        <v>0.54387038703870394</v>
+        <v>0.61594959495949597</v>
       </c>
       <c r="J26" s="134">
         <f t="shared" si="2"/>
-        <v>0.55229522952295229</v>
+        <v>0.64434443444344425</v>
       </c>
       <c r="K26" s="140">
         <f t="shared" si="2"/>
-        <v>0.65489108910891092</v>
+        <v>0.75312475247524746</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -33032,31 +33032,31 @@
       </c>
       <c r="E27" s="135">
         <f t="shared" si="2"/>
-        <v>0.58081279826095822</v>
+        <v>0.64195098755158531</v>
       </c>
       <c r="F27" s="135">
         <f t="shared" si="2"/>
-        <v>0.5620094084880185</v>
+        <v>0.64555134758758881</v>
       </c>
       <c r="G27" s="135">
         <f t="shared" si="2"/>
-        <v>0.50231136321179293</v>
+        <v>0.55317833670159466</v>
       </c>
       <c r="H27" s="135">
         <f t="shared" si="2"/>
-        <v>0.57811878629290236</v>
+        <v>0.64694245132777162</v>
       </c>
       <c r="I27" s="135">
         <f t="shared" si="2"/>
-        <v>0.60430043004300416</v>
+        <v>0.68438843884388423</v>
       </c>
       <c r="J27" s="135">
         <f t="shared" si="2"/>
-        <v>0.61782178217821782</v>
+        <v>0.72079207920792077</v>
       </c>
       <c r="K27" s="142">
         <f t="shared" si="2"/>
-        <v>0.6767207920792081</v>
+        <v>0.77822891089108925</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -33075,31 +33075,31 @@
       </c>
       <c r="E28" s="134">
         <f t="shared" si="2"/>
-        <v>0.61308017594212239</v>
+        <v>0.67761493130445105</v>
       </c>
       <c r="F28" s="134">
         <f t="shared" si="2"/>
-        <v>0.59458275084129053</v>
+        <v>0.68296667326364446</v>
       </c>
       <c r="G28" s="134">
         <f t="shared" si="2"/>
-        <v>0.54300340620523901</v>
+        <v>0.59799109290956698</v>
       </c>
       <c r="H28" s="134">
         <f t="shared" si="2"/>
-        <v>0.62811498200173832</v>
+        <v>0.70289057509718333</v>
       </c>
       <c r="I28" s="134">
         <f t="shared" si="2"/>
-        <v>0.65714939087436608</v>
+        <v>0.74424147882157121</v>
       </c>
       <c r="J28" s="134">
         <f t="shared" si="2"/>
-        <v>0.65999701737857963</v>
+        <v>0.76999652027500953</v>
       </c>
       <c r="K28" s="140">
         <f t="shared" si="2"/>
-        <v>0.70668820303874091</v>
+        <v>0.81269143349455197</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -33118,31 +33118,31 @@
       </c>
       <c r="E29" s="135">
         <f t="shared" si="2"/>
-        <v>0.54854542057979372</v>
+        <v>0.60628704379871934</v>
       </c>
       <c r="F29" s="135">
         <f t="shared" si="2"/>
-        <v>0.52279944975629633</v>
+        <v>0.60051288147682691</v>
       </c>
       <c r="G29" s="135">
         <f t="shared" si="2"/>
-        <v>0.43952244281031877</v>
+        <v>0.48403104461389534</v>
       </c>
       <c r="H29" s="135">
         <f t="shared" si="2"/>
-        <v>0.49332803096994338</v>
+        <v>0.55205755846636517</v>
       </c>
       <c r="I29" s="135">
         <f t="shared" si="2"/>
-        <v>0.54387038703870394</v>
+        <v>0.61594959495949597</v>
       </c>
       <c r="J29" s="135">
         <f t="shared" si="2"/>
-        <v>0.58037803780378039</v>
+        <v>0.67710771077107723</v>
       </c>
       <c r="K29" s="142">
         <f t="shared" si="2"/>
-        <v>0.65489108910891092</v>
+        <v>0.75312475247524746</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -33161,31 +33161,31 @@
       </c>
       <c r="E30" s="134">
         <f t="shared" si="2"/>
-        <v>0.54854542057979372</v>
+        <v>0.60628704379871934</v>
       </c>
       <c r="F30" s="134">
         <f t="shared" si="2"/>
-        <v>0.52279944975629633</v>
+        <v>0.60051288147682691</v>
       </c>
       <c r="G30" s="134">
         <f t="shared" si="2"/>
-        <v>0.43952244281031877</v>
+        <v>0.48403104461389534</v>
       </c>
       <c r="H30" s="134">
         <f t="shared" si="2"/>
-        <v>0.49332803096994338</v>
+        <v>0.55205755846636517</v>
       </c>
       <c r="I30" s="134">
         <f t="shared" si="2"/>
-        <v>0.54387038703870394</v>
+        <v>0.61594959495949597</v>
       </c>
       <c r="J30" s="134">
         <f t="shared" si="2"/>
-        <v>0.58037803780378039</v>
+        <v>0.67710771077107723</v>
       </c>
       <c r="K30" s="140">
         <f t="shared" si="2"/>
-        <v>0.65489108910891092</v>
+        <v>0.75312475247524746</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -33204,31 +33204,31 @@
       </c>
       <c r="E31" s="135">
         <f t="shared" si="2"/>
-        <v>0.54854542057979372</v>
+        <v>0.60628704379871934</v>
       </c>
       <c r="F31" s="135">
         <f t="shared" si="2"/>
-        <v>0.52279944975629633</v>
+        <v>0.60051288147682691</v>
       </c>
       <c r="G31" s="135">
         <f t="shared" si="2"/>
-        <v>0.43952244281031877</v>
+        <v>0.48403104461389534</v>
       </c>
       <c r="H31" s="135">
         <f t="shared" si="2"/>
-        <v>0.49332803096994338</v>
+        <v>0.55205755846636517</v>
       </c>
       <c r="I31" s="135">
         <f t="shared" si="2"/>
-        <v>0.54387038703870394</v>
+        <v>0.61594959495949597</v>
       </c>
       <c r="J31" s="135">
         <f t="shared" si="2"/>
-        <v>0.58037803780378039</v>
+        <v>0.67710771077107723</v>
       </c>
       <c r="K31" s="142">
         <f t="shared" si="2"/>
-        <v>0.65489108910891092</v>
+        <v>0.75312475247524746</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33247,31 +33247,31 @@
       </c>
       <c r="E32" s="147">
         <f t="shared" si="2"/>
-        <v>0.54854542057979372</v>
+        <v>0.60628704379871934</v>
       </c>
       <c r="F32" s="147">
         <f t="shared" si="2"/>
-        <v>0.52279944975629633</v>
+        <v>0.60051288147682691</v>
       </c>
       <c r="G32" s="147">
         <f t="shared" si="2"/>
-        <v>0.43952244281031877</v>
+        <v>0.48403104461389534</v>
       </c>
       <c r="H32" s="147">
         <f t="shared" si="2"/>
-        <v>0.49332803096994338</v>
+        <v>0.55205755846636517</v>
       </c>
       <c r="I32" s="147">
         <f t="shared" si="2"/>
-        <v>0.54387038703870394</v>
+        <v>0.61594959495949597</v>
       </c>
       <c r="J32" s="147">
         <f t="shared" si="2"/>
-        <v>0.58037803780378039</v>
+        <v>0.67710771077107723</v>
       </c>
       <c r="K32" s="161">
         <f t="shared" si="2"/>
-        <v>0.65489108910891092</v>
+        <v>0.75312475247524746</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -33290,31 +33290,31 @@
       </c>
       <c r="E33" s="137">
         <f t="shared" si="2"/>
-        <v>0.61308017594212239</v>
+        <v>0.67761493130445105</v>
       </c>
       <c r="F33" s="137">
         <f t="shared" si="2"/>
-        <v>0.57507939473192593</v>
+        <v>0.66056416962450948</v>
       </c>
       <c r="G33" s="137">
         <f t="shared" si="2"/>
-        <v>0.51486914729208766</v>
+        <v>0.56700779511913446</v>
       </c>
       <c r="H33" s="137">
         <f t="shared" si="2"/>
-        <v>0.62436828919633458</v>
+        <v>0.69869784743399344</v>
       </c>
       <c r="I33" s="137">
         <f t="shared" si="2"/>
-        <v>0.68199619961996194</v>
+        <v>0.77238123812381232</v>
       </c>
       <c r="J33" s="137">
         <f t="shared" si="2"/>
-        <v>0.6739873987398739</v>
+        <v>0.78631863186318618</v>
       </c>
       <c r="K33" s="138">
         <f t="shared" si="2"/>
-        <v>0.76403960396039605</v>
+        <v>0.87864554455445543</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -33333,31 +33333,31 @@
       </c>
       <c r="E34" s="134">
         <f t="shared" si="2"/>
-        <v>0.58081279826095822</v>
+        <v>0.64195098755158531</v>
       </c>
       <c r="F34" s="134">
         <f t="shared" si="2"/>
-        <v>0.5031944703904353</v>
+        <v>0.57799364842144585</v>
       </c>
       <c r="G34" s="134">
         <f t="shared" si="2"/>
-        <v>0.44580133485046619</v>
+        <v>0.4909457738226653</v>
       </c>
       <c r="H34" s="134">
         <f t="shared" si="2"/>
-        <v>0.53957753387337559</v>
+        <v>0.60381295457258688</v>
       </c>
       <c r="I34" s="134">
         <f t="shared" si="2"/>
-        <v>0.58703470347034703</v>
+        <v>0.66483448344834484</v>
       </c>
       <c r="J34" s="134">
         <f t="shared" si="2"/>
-        <v>0.58037803780378039</v>
+        <v>0.67710771077107723</v>
       </c>
       <c r="K34" s="140">
         <f t="shared" si="2"/>
-        <v>0.56757227722772285</v>
+        <v>0.65270811881188118</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -33376,31 +33376,31 @@
       </c>
       <c r="E35" s="135">
         <f t="shared" ref="E35:K50" si="3">E178*E$140</f>
-        <v>0.58081279826095822</v>
+        <v>0.64195098755158531</v>
       </c>
       <c r="F35" s="135">
         <f t="shared" si="3"/>
-        <v>0.54240442912215747</v>
+        <v>0.62303211453220786</v>
       </c>
       <c r="G35" s="135">
         <f t="shared" si="3"/>
-        <v>0.48975357913149797</v>
+        <v>0.53934887828405476</v>
       </c>
       <c r="H35" s="135">
         <f t="shared" si="3"/>
-        <v>0.60124353774461836</v>
+        <v>0.67282014938088253</v>
       </c>
       <c r="I35" s="135">
         <f t="shared" si="3"/>
-        <v>0.6647304730473047</v>
+        <v>0.75282728272827271</v>
       </c>
       <c r="J35" s="135">
         <f t="shared" si="3"/>
-        <v>0.60846084608460849</v>
+        <v>0.70987098709870999</v>
       </c>
       <c r="K35" s="142">
         <f t="shared" si="3"/>
-        <v>0.72038019801980213</v>
+        <v>0.8284372277227724</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -33419,31 +33419,31 @@
       </c>
       <c r="E36" s="134">
         <f t="shared" si="3"/>
-        <v>0.58081279826095822</v>
+        <v>0.64195098755158531</v>
       </c>
       <c r="F36" s="134">
         <f t="shared" si="3"/>
-        <v>0.22872475926837962</v>
+        <v>0.26272438564611172</v>
       </c>
       <c r="G36" s="134">
         <f t="shared" si="3"/>
-        <v>0.22604011344530675</v>
+        <v>0.24893025151571754</v>
       </c>
       <c r="H36" s="134">
         <f t="shared" si="3"/>
-        <v>0.27749701742059318</v>
+        <v>0.31053237663733047</v>
       </c>
       <c r="I36" s="134">
         <f t="shared" si="3"/>
-        <v>0.64746474647464736</v>
+        <v>0.73327332733273309</v>
       </c>
       <c r="J36" s="134">
         <f t="shared" si="3"/>
-        <v>0.6739873987398739</v>
+        <v>0.78631863186318618</v>
       </c>
       <c r="K36" s="140">
         <f t="shared" si="3"/>
-        <v>0.73129504950495061</v>
+        <v>0.84098930693069318</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -33462,31 +33462,31 @@
       </c>
       <c r="E37" s="135">
         <f t="shared" si="3"/>
-        <v>0.51627804289862944</v>
+        <v>0.57062310004585359</v>
       </c>
       <c r="F37" s="135">
         <f t="shared" si="3"/>
-        <v>0.45744951853675925</v>
+        <v>0.52544877129222345</v>
       </c>
       <c r="G37" s="135">
         <f t="shared" si="3"/>
-        <v>0.50231136321179293</v>
+        <v>0.55317833670159466</v>
       </c>
       <c r="H37" s="135">
         <f t="shared" si="3"/>
-        <v>0.66290954161586135</v>
+        <v>0.74182734418917817</v>
       </c>
       <c r="I37" s="135">
         <f t="shared" si="3"/>
-        <v>0.69062906290629056</v>
+        <v>0.78215821582158207</v>
       </c>
       <c r="J37" s="135">
         <f t="shared" si="3"/>
-        <v>0.71143114311431144</v>
+        <v>0.83000300030003005</v>
       </c>
       <c r="K37" s="142">
         <f t="shared" si="3"/>
-        <v>0.78586930693069312</v>
+        <v>0.903749702970297</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -33505,31 +33505,31 @@
       </c>
       <c r="E38" s="134">
         <f t="shared" si="3"/>
-        <v>0.51627804289862944</v>
+        <v>0.57062310004585359</v>
       </c>
       <c r="F38" s="134">
         <f t="shared" si="3"/>
-        <v>0.49665947726848153</v>
+        <v>0.57048723740298557</v>
       </c>
       <c r="G38" s="134">
         <f t="shared" si="3"/>
-        <v>0.49398297689920173</v>
+        <v>0.54400656949658921</v>
       </c>
       <c r="H38" s="134">
         <f t="shared" si="3"/>
-        <v>0.55402553946927524</v>
+        <v>0.61998096083466514</v>
       </c>
       <c r="I38" s="134">
         <f t="shared" si="3"/>
-        <v>0.60430043004300416</v>
+        <v>0.68438843884388423</v>
       </c>
       <c r="J38" s="134">
         <f t="shared" si="3"/>
-        <v>0.43060306030603057</v>
+        <v>0.50237023702370232</v>
       </c>
       <c r="K38" s="140">
         <f t="shared" si="3"/>
-        <v>0.52391287128712871</v>
+        <v>0.60249980198019792</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -33548,31 +33548,31 @@
       </c>
       <c r="E39" s="135">
         <f t="shared" si="3"/>
-        <v>0.58843869554608097</v>
+        <v>0.65037961086672103</v>
       </c>
       <c r="F39" s="135">
         <f t="shared" si="3"/>
-        <v>0.55661741353202876</v>
+        <v>0.63935783986787087</v>
       </c>
       <c r="G39" s="135">
         <f t="shared" si="3"/>
-        <v>0.51486914729208766</v>
+        <v>0.56700779511913446</v>
       </c>
       <c r="H39" s="135">
         <f t="shared" si="3"/>
-        <v>0.57811878629290236</v>
+        <v>0.64694245132777162</v>
       </c>
       <c r="I39" s="135">
         <f t="shared" si="3"/>
-        <v>0.64746474647464736</v>
+        <v>0.73327332733273309</v>
       </c>
       <c r="J39" s="135">
         <f t="shared" si="3"/>
-        <v>0.6459045904590458</v>
+        <v>0.75355535553555342</v>
       </c>
       <c r="K39" s="142">
         <f t="shared" si="3"/>
-        <v>0.74220990099009931</v>
+        <v>0.85354138613861419</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -33591,31 +33591,31 @@
       </c>
       <c r="E40" s="134">
         <f t="shared" si="3"/>
-        <v>0.58843869554608097</v>
+        <v>0.65037961086672103</v>
       </c>
       <c r="F40" s="134">
         <f t="shared" si="3"/>
-        <v>0.52279944975629633</v>
+        <v>0.60051288147682691</v>
       </c>
       <c r="G40" s="134">
         <f t="shared" si="3"/>
-        <v>0.4520802268906135</v>
+        <v>0.49786050303143509</v>
       </c>
       <c r="H40" s="134">
         <f t="shared" si="3"/>
-        <v>0.53957753387337559</v>
+        <v>0.60381295457258688</v>
       </c>
       <c r="I40" s="134">
         <f t="shared" si="3"/>
-        <v>0.56113611361136118</v>
+        <v>0.63550355035503547</v>
       </c>
       <c r="J40" s="134">
         <f t="shared" si="3"/>
-        <v>0.60846084608460849</v>
+        <v>0.70987098709870999</v>
       </c>
       <c r="K40" s="140">
         <f t="shared" si="3"/>
-        <v>0.70946534653465354</v>
+        <v>0.8158851485148515</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -33634,31 +33634,31 @@
       </c>
       <c r="E41" s="135">
         <f t="shared" si="3"/>
-        <v>0.58843869554608097</v>
+        <v>0.65037961086672103</v>
       </c>
       <c r="F41" s="135">
         <f t="shared" si="3"/>
-        <v>0.52279944975629633</v>
+        <v>0.60051288147682691</v>
       </c>
       <c r="G41" s="135">
         <f t="shared" si="3"/>
-        <v>0.4520802268906135</v>
+        <v>0.49786050303143509</v>
       </c>
       <c r="H41" s="135">
         <f t="shared" si="3"/>
-        <v>0.53957753387337559</v>
+        <v>0.60381295457258688</v>
       </c>
       <c r="I41" s="135">
         <f t="shared" si="3"/>
-        <v>0.56113611361136118</v>
+        <v>0.63550355035503547</v>
       </c>
       <c r="J41" s="135">
         <f t="shared" si="3"/>
-        <v>0.60846084608460849</v>
+        <v>0.70987098709870999</v>
       </c>
       <c r="K41" s="142">
         <f t="shared" si="3"/>
-        <v>0.70946534653465354</v>
+        <v>0.8158851485148515</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -33677,31 +33677,31 @@
       </c>
       <c r="E42" s="134">
         <f t="shared" si="3"/>
-        <v>0.58843869554608097</v>
+        <v>0.65037961086672103</v>
       </c>
       <c r="F42" s="134">
         <f t="shared" si="3"/>
-        <v>0.55661741353202876</v>
+        <v>0.63935783986787087</v>
       </c>
       <c r="G42" s="134">
         <f t="shared" si="3"/>
-        <v>0.42696465873002398</v>
+        <v>0.47020158619635549</v>
       </c>
       <c r="H42" s="134">
         <f t="shared" si="3"/>
-        <v>0.55402553946927524</v>
+        <v>0.61998096083466514</v>
       </c>
       <c r="I42" s="134">
         <f t="shared" si="3"/>
-        <v>0.56070281136793754</v>
+        <v>0.63501282251308588</v>
       </c>
       <c r="J42" s="134">
         <f t="shared" si="3"/>
-        <v>0.54341732493108186</v>
+        <v>0.63398687908626217</v>
       </c>
       <c r="K42" s="140">
         <f t="shared" si="3"/>
-        <v>0.56003594107050014</v>
+        <v>0.64404133223107507</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -33720,31 +33720,31 @@
       </c>
       <c r="E43" s="135">
         <f t="shared" si="3"/>
-        <v>0.61308017594212239</v>
+        <v>0.67761493130445105</v>
       </c>
       <c r="F43" s="135">
         <f t="shared" si="3"/>
-        <v>0.59458275084129053</v>
+        <v>0.68296667326364446</v>
       </c>
       <c r="G43" s="135">
         <f t="shared" si="3"/>
-        <v>0.54300340620523901</v>
+        <v>0.59799109290956698</v>
       </c>
       <c r="H43" s="135">
         <f t="shared" si="3"/>
-        <v>0.62811498200173832</v>
+        <v>0.70289057509718333</v>
       </c>
       <c r="I43" s="135">
         <f t="shared" si="3"/>
-        <v>0.65714939087436608</v>
+        <v>0.74424147882157121</v>
       </c>
       <c r="J43" s="135">
         <f t="shared" si="3"/>
-        <v>0.65999701737857963</v>
+        <v>0.76999652027500953</v>
       </c>
       <c r="K43" s="142">
         <f t="shared" si="3"/>
-        <v>0.70668820303874091</v>
+        <v>0.81269143349455197</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -33763,31 +33763,31 @@
       </c>
       <c r="E44" s="134">
         <f t="shared" si="3"/>
-        <v>0.58843869554608097</v>
+        <v>0.65037961086672103</v>
       </c>
       <c r="F44" s="134">
         <f t="shared" si="3"/>
-        <v>0.55661741353202876</v>
+        <v>0.63935783986787087</v>
       </c>
       <c r="G44" s="134">
         <f t="shared" si="3"/>
-        <v>0.49398297689920173</v>
+        <v>0.54400656949658921</v>
       </c>
       <c r="H44" s="134">
         <f t="shared" si="3"/>
-        <v>0.55402553946927524</v>
+        <v>0.61998096083466514</v>
       </c>
       <c r="I44" s="134">
         <f t="shared" si="3"/>
-        <v>0.60430043004300416</v>
+        <v>0.68438843884388423</v>
       </c>
       <c r="J44" s="134">
         <f t="shared" si="3"/>
-        <v>0.6459045904590458</v>
+        <v>0.75355535553555342</v>
       </c>
       <c r="K44" s="140">
         <f t="shared" si="3"/>
-        <v>0.74220990099009931</v>
+        <v>0.85354138613861419</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -33806,31 +33806,31 @@
       </c>
       <c r="E45" s="135">
         <f t="shared" si="3"/>
-        <v>0.58843869554608097</v>
+        <v>0.65037961086672103</v>
       </c>
       <c r="F45" s="135">
         <f t="shared" si="3"/>
-        <v>0.55661741353202876</v>
+        <v>0.63935783986787087</v>
       </c>
       <c r="G45" s="135">
         <f t="shared" si="3"/>
-        <v>0.49398297689920173</v>
+        <v>0.54400656949658921</v>
       </c>
       <c r="H45" s="135">
         <f t="shared" si="3"/>
-        <v>0.55402553946927524</v>
+        <v>0.61998096083466514</v>
       </c>
       <c r="I45" s="135">
         <f t="shared" si="3"/>
-        <v>0.60430043004300416</v>
+        <v>0.68438843884388423</v>
       </c>
       <c r="J45" s="135">
         <f t="shared" si="3"/>
-        <v>0.6459045904590458</v>
+        <v>0.75355535553555342</v>
       </c>
       <c r="K45" s="142">
         <f t="shared" si="3"/>
-        <v>0.74220990099009931</v>
+        <v>0.85354138613861419</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -33849,31 +33849,31 @@
       </c>
       <c r="E46" s="134">
         <f t="shared" si="3"/>
-        <v>0.58843869554608097</v>
+        <v>0.65037961086672103</v>
       </c>
       <c r="F46" s="134">
         <f t="shared" si="3"/>
-        <v>0.55661741353202876</v>
+        <v>0.63935783986787087</v>
       </c>
       <c r="G46" s="134">
         <f t="shared" si="3"/>
-        <v>0.49398297689920173</v>
+        <v>0.54400656949658921</v>
       </c>
       <c r="H46" s="134">
         <f t="shared" si="3"/>
-        <v>0.55402553946927524</v>
+        <v>0.61998096083466514</v>
       </c>
       <c r="I46" s="134">
         <f t="shared" si="3"/>
-        <v>0.60430043004300416</v>
+        <v>0.68438843884388423</v>
       </c>
       <c r="J46" s="134">
         <f t="shared" si="3"/>
-        <v>0.6459045904590458</v>
+        <v>0.75355535553555342</v>
       </c>
       <c r="K46" s="140">
         <f t="shared" si="3"/>
-        <v>0.74220990099009931</v>
+        <v>0.85354138613861419</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33892,31 +33892,31 @@
       </c>
       <c r="E47" s="135">
         <f t="shared" si="3"/>
-        <v>0.58843869554608097</v>
+        <v>0.65037961086672103</v>
       </c>
       <c r="F47" s="135">
         <f t="shared" si="3"/>
-        <v>0.55661741353202876</v>
+        <v>0.63935783986787087</v>
       </c>
       <c r="G47" s="135">
         <f t="shared" si="3"/>
-        <v>0.49398297689920173</v>
+        <v>0.54400656949658921</v>
       </c>
       <c r="H47" s="135">
         <f t="shared" si="3"/>
-        <v>0.55402553946927524</v>
+        <v>0.61998096083466514</v>
       </c>
       <c r="I47" s="135">
         <f t="shared" si="3"/>
-        <v>0.60430043004300416</v>
+        <v>0.68438843884388423</v>
       </c>
       <c r="J47" s="135">
         <f t="shared" si="3"/>
-        <v>0.6459045904590458</v>
+        <v>0.75355535553555342</v>
       </c>
       <c r="K47" s="142">
         <f t="shared" si="3"/>
-        <v>0.74220990099009931</v>
+        <v>0.85354138613861419</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -33935,31 +33935,31 @@
       </c>
       <c r="E48" s="159">
         <f t="shared" si="3"/>
-        <v>0.52918499397109509</v>
+        <v>0.5848886775469998</v>
       </c>
       <c r="F48" s="159">
         <f t="shared" si="3"/>
-        <v>0.5097294635123889</v>
+        <v>0.58550005943990613</v>
       </c>
       <c r="G48" s="159">
         <f t="shared" si="3"/>
-        <v>0.43952244281031877</v>
+        <v>0.48403104461389534</v>
       </c>
       <c r="H48" s="159">
         <f t="shared" si="3"/>
-        <v>0.53957753387337559</v>
+        <v>0.60381295457258688</v>
       </c>
       <c r="I48" s="159">
         <f t="shared" si="3"/>
-        <v>0.56113611361136118</v>
+        <v>0.63550355035503547</v>
       </c>
       <c r="J48" s="159">
         <f t="shared" si="3"/>
-        <v>0.54293429342934285</v>
+        <v>0.63342334233423336</v>
       </c>
       <c r="K48" s="160">
         <f t="shared" si="3"/>
-        <v>0.57848712871287133</v>
+        <v>0.66526019801980196</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -33978,31 +33978,31 @@
       </c>
       <c r="E49" s="135">
         <f t="shared" si="3"/>
-        <v>0.52918499397109509</v>
+        <v>0.5848886775469998</v>
       </c>
       <c r="F49" s="135">
         <f t="shared" si="3"/>
-        <v>0.5097294635123889</v>
+        <v>0.58550005943990613</v>
       </c>
       <c r="G49" s="135">
         <f t="shared" si="3"/>
-        <v>0.43952244281031877</v>
+        <v>0.48403104461389534</v>
       </c>
       <c r="H49" s="135">
         <f t="shared" si="3"/>
-        <v>0.53957753387337559</v>
+        <v>0.60381295457258688</v>
       </c>
       <c r="I49" s="135">
         <f t="shared" si="3"/>
-        <v>0.56113611361136118</v>
+        <v>0.63550355035503547</v>
       </c>
       <c r="J49" s="135">
         <f t="shared" si="3"/>
-        <v>0.54293429342934285</v>
+        <v>0.63342334233423336</v>
       </c>
       <c r="K49" s="142">
         <f t="shared" si="3"/>
-        <v>0.61123168316831678</v>
+        <v>0.70291643564356421</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -34021,31 +34021,31 @@
       </c>
       <c r="E50" s="134">
         <f t="shared" si="3"/>
-        <v>0.52918499397109509</v>
+        <v>0.5848886775469998</v>
       </c>
       <c r="F50" s="134">
         <f t="shared" si="3"/>
-        <v>0.5097294635123889</v>
+        <v>0.58550005943990613</v>
       </c>
       <c r="G50" s="134">
         <f t="shared" si="3"/>
-        <v>0.43952244281031877</v>
+        <v>0.48403104461389534</v>
       </c>
       <c r="H50" s="134">
         <f t="shared" si="3"/>
-        <v>0.53957753387337559</v>
+        <v>0.60381295457258688</v>
       </c>
       <c r="I50" s="134">
         <f t="shared" si="3"/>
-        <v>0.56113611361136118</v>
+        <v>0.63550355035503547</v>
       </c>
       <c r="J50" s="134">
         <f t="shared" si="3"/>
-        <v>0.54293429342934285</v>
+        <v>0.63342334233423336</v>
       </c>
       <c r="K50" s="140">
         <f t="shared" si="3"/>
-        <v>0.61123168316831678</v>
+        <v>0.70291643564356421</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -34064,31 +34064,31 @@
       </c>
       <c r="E51" s="135">
         <f t="shared" ref="E51:K66" si="4">E194*E$140</f>
-        <v>0.52918499397109509</v>
+        <v>0.5848886775469998</v>
       </c>
       <c r="F51" s="135">
         <f t="shared" si="4"/>
-        <v>0.5097294635123889</v>
+        <v>0.58550005943990613</v>
       </c>
       <c r="G51" s="135">
         <f t="shared" si="4"/>
-        <v>0.53370582341252992</v>
+        <v>0.58775198274544427</v>
       </c>
       <c r="H51" s="135">
         <f t="shared" si="4"/>
-        <v>0.63978479016414513</v>
+        <v>0.71594964613606715</v>
       </c>
       <c r="I51" s="135">
         <f t="shared" si="4"/>
-        <v>0.67336333633363321</v>
+        <v>0.76260426042604246</v>
       </c>
       <c r="J51" s="135">
         <f t="shared" si="4"/>
-        <v>0.58037803780378039</v>
+        <v>0.67710771077107723</v>
       </c>
       <c r="K51" s="142">
         <f t="shared" si="4"/>
-        <v>0.65489108910891092</v>
+        <v>0.75312475247524746</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -34107,31 +34107,31 @@
       </c>
       <c r="E52" s="134">
         <f t="shared" si="4"/>
-        <v>0.387208532173972</v>
+        <v>0.42796732503439006</v>
       </c>
       <c r="F52" s="134">
         <f t="shared" si="4"/>
-        <v>0.32674965609768519</v>
+        <v>0.37532055092301675</v>
       </c>
       <c r="G52" s="134">
         <f t="shared" si="4"/>
-        <v>0.4646380109709084</v>
+        <v>0.51168996144897505</v>
       </c>
       <c r="H52" s="134">
         <f t="shared" si="4"/>
-        <v>0.60895178822852392</v>
+        <v>0.68144604873191972</v>
       </c>
       <c r="I52" s="134">
         <f t="shared" si="4"/>
-        <v>0.63883188318831874</v>
+        <v>0.72349634963496345</v>
       </c>
       <c r="J52" s="134">
         <f t="shared" si="4"/>
-        <v>0.56165616561656162</v>
+        <v>0.65526552655265524</v>
       </c>
       <c r="K52" s="140">
         <f t="shared" si="4"/>
-        <v>0.63306138613861374</v>
+        <v>0.72802059405940578</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -34150,31 +34150,31 @@
       </c>
       <c r="E53" s="135">
         <f t="shared" si="4"/>
-        <v>0.52918499397109509</v>
+        <v>0.5848886775469998</v>
       </c>
       <c r="F53" s="135">
         <f t="shared" si="4"/>
-        <v>0.47051950478066662</v>
+        <v>0.54046159332914412</v>
       </c>
       <c r="G53" s="135">
         <f t="shared" si="4"/>
-        <v>0.41440687464972908</v>
+        <v>0.45637212777881553</v>
       </c>
       <c r="H53" s="135">
         <f t="shared" si="4"/>
-        <v>0.50103628145384882</v>
+        <v>0.56068345781740225</v>
       </c>
       <c r="I53" s="135">
         <f t="shared" si="4"/>
-        <v>0.53523752375237521</v>
+        <v>0.60617261726172622</v>
       </c>
       <c r="J53" s="135">
         <f t="shared" si="4"/>
-        <v>0.56165616561656162</v>
+        <v>0.65526552655265524</v>
       </c>
       <c r="K53" s="142">
         <f t="shared" si="4"/>
-        <v>0.60031683168316841</v>
+        <v>0.69036435643564364</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -34193,31 +34193,31 @@
       </c>
       <c r="E54" s="134">
         <f t="shared" si="4"/>
-        <v>0.51627804289862944</v>
+        <v>0.57062310004585359</v>
       </c>
       <c r="F54" s="134">
         <f t="shared" si="4"/>
-        <v>0.49665947726848153</v>
+        <v>0.57048723740298557</v>
       </c>
       <c r="G54" s="134">
         <f t="shared" si="4"/>
-        <v>0.4520802268906135</v>
+        <v>0.49786050303143509</v>
       </c>
       <c r="H54" s="134">
         <f t="shared" si="4"/>
-        <v>0.52416103290556493</v>
+        <v>0.58656115587051305</v>
       </c>
       <c r="I54" s="134">
         <f t="shared" si="4"/>
-        <v>0.51797179717971797</v>
+        <v>0.58661866186618661</v>
       </c>
       <c r="J54" s="134">
         <f t="shared" si="4"/>
-        <v>0.51485148514851486</v>
+        <v>0.60066006600660071</v>
       </c>
       <c r="K54" s="140">
         <f t="shared" si="4"/>
-        <v>0.54574257425742556</v>
+        <v>0.62760396039603938</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -34236,31 +34236,31 @@
       </c>
       <c r="E55" s="135">
         <f t="shared" si="4"/>
-        <v>0.5074031527404862</v>
+        <v>0.56081401092369532</v>
       </c>
       <c r="F55" s="135">
         <f t="shared" si="4"/>
-        <v>0.39209958731722222</v>
+        <v>0.4503846611076201</v>
       </c>
       <c r="G55" s="135">
         <f t="shared" si="4"/>
-        <v>0.28255014180663351</v>
+        <v>0.31116281439464699</v>
       </c>
       <c r="H55" s="135">
         <f t="shared" si="4"/>
-        <v>0.32374652032402534</v>
+        <v>0.36228777274355217</v>
       </c>
       <c r="I55" s="135">
         <f t="shared" si="4"/>
-        <v>0.32804880488048804</v>
+        <v>0.37152515251525153</v>
       </c>
       <c r="J55" s="135">
         <f t="shared" si="4"/>
-        <v>0.29954995499549952</v>
+        <v>0.34947494749474944</v>
       </c>
       <c r="K55" s="142">
         <f t="shared" si="4"/>
-        <v>0.32744554455445546</v>
+        <v>0.37656237623762373</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -34279,31 +34279,31 @@
       </c>
       <c r="E56" s="134">
         <f t="shared" si="4"/>
-        <v>0.5074031527404862</v>
+        <v>0.56081401092369532</v>
       </c>
       <c r="F56" s="134">
         <f t="shared" si="4"/>
-        <v>0.39209958731722222</v>
+        <v>0.4503846611076201</v>
       </c>
       <c r="G56" s="134">
         <f t="shared" si="4"/>
-        <v>0.28255014180663351</v>
+        <v>0.31116281439464699</v>
       </c>
       <c r="H56" s="134">
         <f t="shared" si="4"/>
-        <v>0.32374652032402534</v>
+        <v>0.36228777274355217</v>
       </c>
       <c r="I56" s="134">
         <f t="shared" si="4"/>
-        <v>0.32804880488048804</v>
+        <v>0.37152515251525153</v>
       </c>
       <c r="J56" s="134">
         <f t="shared" si="4"/>
-        <v>0.29954995499549952</v>
+        <v>0.34947494749474944</v>
       </c>
       <c r="K56" s="140">
         <f t="shared" si="4"/>
-        <v>0.32744554455445546</v>
+        <v>0.37656237623762373</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -34322,31 +34322,31 @@
       </c>
       <c r="E57" s="135">
         <f t="shared" si="4"/>
-        <v>0.5074031527404862</v>
+        <v>0.56081401092369532</v>
       </c>
       <c r="F57" s="135">
         <f t="shared" si="4"/>
-        <v>0.45610207240545247</v>
+        <v>0.52390102911437109</v>
       </c>
       <c r="G57" s="135">
         <f t="shared" si="4"/>
-        <v>0.38876737015414981</v>
+        <v>0.42813621776469662</v>
       </c>
       <c r="H57" s="135">
         <f t="shared" si="4"/>
-        <v>0.42248214620610591</v>
+        <v>0.47277763980207088</v>
       </c>
       <c r="I57" s="135">
         <f t="shared" si="4"/>
-        <v>0.41728484894544893</v>
+        <v>0.47258766025147231</v>
       </c>
       <c r="J57" s="135">
         <f t="shared" si="4"/>
-        <v>0.39688502001441883</v>
+        <v>0.46303252335015532</v>
       </c>
       <c r="K57" s="142">
         <f t="shared" si="4"/>
-        <v>0.40305189035744249</v>
+        <v>0.46350967391105885</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -34365,31 +34365,31 @@
       </c>
       <c r="E58" s="134">
         <f t="shared" si="4"/>
-        <v>0.61308017594212239</v>
+        <v>0.67761493130445105</v>
       </c>
       <c r="F58" s="134">
         <f t="shared" si="4"/>
-        <v>0.59458275084129053</v>
+        <v>0.68296667326364446</v>
       </c>
       <c r="G58" s="134">
         <f t="shared" si="4"/>
-        <v>0.54300340620523901</v>
+        <v>0.59799109290956698</v>
       </c>
       <c r="H58" s="134">
         <f t="shared" si="4"/>
-        <v>0.62811498200173832</v>
+        <v>0.70289057509718333</v>
       </c>
       <c r="I58" s="134">
         <f t="shared" si="4"/>
-        <v>0.65714939087436608</v>
+        <v>0.74424147882157121</v>
       </c>
       <c r="J58" s="134">
         <f t="shared" si="4"/>
-        <v>0.65999701737857963</v>
+        <v>0.76999652027500953</v>
       </c>
       <c r="K58" s="140">
         <f t="shared" si="4"/>
-        <v>0.70668820303874091</v>
+        <v>0.81269143349455197</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -34408,31 +34408,31 @@
       </c>
       <c r="E59" s="135">
         <f t="shared" si="4"/>
-        <v>0.52918499397109509</v>
+        <v>0.5848886775469998</v>
       </c>
       <c r="F59" s="135">
         <f t="shared" si="4"/>
-        <v>0.5097294635123889</v>
+        <v>0.58550005943990613</v>
       </c>
       <c r="G59" s="135">
         <f t="shared" si="4"/>
-        <v>0.47091690301105582</v>
+        <v>0.51860469065774495</v>
       </c>
       <c r="H59" s="135">
         <f t="shared" si="4"/>
-        <v>0.53957753387337559</v>
+        <v>0.60381295457258688</v>
       </c>
       <c r="I59" s="135">
         <f t="shared" si="4"/>
-        <v>0.56113611361136118</v>
+        <v>0.63550355035503547</v>
       </c>
       <c r="J59" s="135">
         <f t="shared" si="4"/>
-        <v>0.58037803780378039</v>
+        <v>0.67710771077107723</v>
       </c>
       <c r="K59" s="142">
         <f t="shared" si="4"/>
-        <v>0.65489108910891092</v>
+        <v>0.75312475247524746</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -34451,31 +34451,31 @@
       </c>
       <c r="E60" s="134">
         <f t="shared" si="4"/>
-        <v>0.52918499397109509</v>
+        <v>0.5848886775469998</v>
       </c>
       <c r="F60" s="134">
         <f t="shared" si="4"/>
-        <v>0.5097294635123889</v>
+        <v>0.58550005943990613</v>
       </c>
       <c r="G60" s="134">
         <f t="shared" si="4"/>
-        <v>0.47091690301105582</v>
+        <v>0.51860469065774495</v>
       </c>
       <c r="H60" s="134">
         <f t="shared" si="4"/>
-        <v>0.53957753387337559</v>
+        <v>0.60381295457258688</v>
       </c>
       <c r="I60" s="134">
         <f t="shared" si="4"/>
-        <v>0.56113611361136118</v>
+        <v>0.63550355035503547</v>
       </c>
       <c r="J60" s="134">
         <f t="shared" si="4"/>
-        <v>0.58037803780378039</v>
+        <v>0.67710771077107723</v>
       </c>
       <c r="K60" s="140">
         <f t="shared" si="4"/>
-        <v>0.65489108910891092</v>
+        <v>0.75312475247524746</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -34494,31 +34494,31 @@
       </c>
       <c r="E61" s="135">
         <f t="shared" si="4"/>
-        <v>0.52918499397109509</v>
+        <v>0.5848886775469998</v>
       </c>
       <c r="F61" s="135">
         <f t="shared" si="4"/>
-        <v>0.5097294635123889</v>
+        <v>0.58550005943990613</v>
       </c>
       <c r="G61" s="135">
         <f t="shared" si="4"/>
-        <v>0.47091690301105582</v>
+        <v>0.51860469065774495</v>
       </c>
       <c r="H61" s="135">
         <f t="shared" si="4"/>
-        <v>0.53957753387337559</v>
+        <v>0.60381295457258688</v>
       </c>
       <c r="I61" s="135">
         <f t="shared" si="4"/>
-        <v>0.56113611361136118</v>
+        <v>0.63550355035503547</v>
       </c>
       <c r="J61" s="135">
         <f t="shared" si="4"/>
-        <v>0.58037803780378039</v>
+        <v>0.67710771077107723</v>
       </c>
       <c r="K61" s="142">
         <f t="shared" si="4"/>
-        <v>0.65489108910891092</v>
+        <v>0.75312475247524746</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -34537,31 +34537,31 @@
       </c>
       <c r="E62" s="147">
         <f t="shared" si="4"/>
-        <v>0.52918499397109509</v>
+        <v>0.5848886775469998</v>
       </c>
       <c r="F62" s="147">
         <f t="shared" si="4"/>
-        <v>0.5097294635123889</v>
+        <v>0.58550005943990613</v>
       </c>
       <c r="G62" s="147">
         <f t="shared" si="4"/>
-        <v>0.47091690301105582</v>
+        <v>0.51860469065774495</v>
       </c>
       <c r="H62" s="147">
         <f t="shared" si="4"/>
-        <v>0.53957753387337559</v>
+        <v>0.60381295457258688</v>
       </c>
       <c r="I62" s="147">
         <f t="shared" si="4"/>
-        <v>0.56113611361136118</v>
+        <v>0.63550355035503547</v>
       </c>
       <c r="J62" s="147">
         <f t="shared" si="4"/>
-        <v>0.58037803780378039</v>
+        <v>0.67710771077107723</v>
       </c>
       <c r="K62" s="161">
         <f t="shared" si="4"/>
-        <v>0.65489108910891092</v>
+        <v>0.75312475247524746</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -34580,31 +34580,31 @@
       </c>
       <c r="E63" s="137">
         <f t="shared" si="4"/>
-        <v>0.54854542057979372</v>
+        <v>0.60628704379871934</v>
       </c>
       <c r="F63" s="137">
         <f t="shared" si="4"/>
-        <v>0.52279944975629633</v>
+        <v>0.60051288147682691</v>
       </c>
       <c r="G63" s="137">
         <f t="shared" si="4"/>
-        <v>0.47091690301105582</v>
+        <v>0.51860469065774495</v>
       </c>
       <c r="H63" s="137">
         <f t="shared" si="4"/>
-        <v>0.53957753387337559</v>
+        <v>0.60381295457258688</v>
       </c>
       <c r="I63" s="137">
         <f t="shared" si="4"/>
-        <v>0.58703470347034703</v>
+        <v>0.66483448344834484</v>
       </c>
       <c r="J63" s="137">
         <f t="shared" si="4"/>
-        <v>0.59378382841113952</v>
+        <v>0.69274779981299606</v>
       </c>
       <c r="K63" s="138">
         <f t="shared" si="4"/>
-        <v>0.57904340554013611</v>
+        <v>0.66589991637115653</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -34623,31 +34623,31 @@
       </c>
       <c r="E64" s="134">
         <f t="shared" si="4"/>
-        <v>0.54854542057979372</v>
+        <v>0.60628704379871934</v>
       </c>
       <c r="F64" s="134">
         <f t="shared" si="4"/>
-        <v>0.49665947726848153</v>
+        <v>0.57048723740298557</v>
       </c>
       <c r="G64" s="134">
         <f t="shared" si="4"/>
-        <v>0.43952244281031877</v>
+        <v>0.48403104461389534</v>
       </c>
       <c r="H64" s="134">
         <f t="shared" si="4"/>
-        <v>0.53957753387337559</v>
+        <v>0.60381295457258688</v>
       </c>
       <c r="I64" s="134">
         <f t="shared" si="4"/>
-        <v>0.58703470347034703</v>
+        <v>0.66483448344834484</v>
       </c>
       <c r="J64" s="134">
         <f t="shared" si="4"/>
-        <v>0.54293429342934285</v>
+        <v>0.63342334233423336</v>
       </c>
       <c r="K64" s="140">
         <f t="shared" si="4"/>
-        <v>0.57904340554013611</v>
+        <v>0.66589991637115653</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -34666,31 +34666,31 @@
       </c>
       <c r="E65" s="135">
         <f t="shared" si="4"/>
-        <v>0.54854542057979372</v>
+        <v>0.60628704379871934</v>
       </c>
       <c r="F65" s="135">
         <f t="shared" si="4"/>
-        <v>0.52279944975629633</v>
+        <v>0.60051288147682691</v>
       </c>
       <c r="G65" s="135">
         <f t="shared" si="4"/>
-        <v>0.47091690301105582</v>
+        <v>0.51860469065774495</v>
       </c>
       <c r="H65" s="135">
         <f t="shared" si="4"/>
-        <v>0.53957753387337559</v>
+        <v>0.60381295457258688</v>
       </c>
       <c r="I65" s="135">
         <f t="shared" si="4"/>
-        <v>0.60430043004300416</v>
+        <v>0.68438843884388423</v>
       </c>
       <c r="J65" s="135">
         <f t="shared" si="4"/>
-        <v>0.60846084608460849</v>
+        <v>0.70987098709870999</v>
       </c>
       <c r="K65" s="142">
         <f t="shared" si="4"/>
-        <v>0.54574257425742556</v>
+        <v>0.62760396039603938</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -34709,31 +34709,31 @@
       </c>
       <c r="E66" s="134">
         <f t="shared" si="4"/>
-        <v>0.54854542057979372</v>
+        <v>0.60628704379871934</v>
       </c>
       <c r="F66" s="134">
         <f t="shared" si="4"/>
-        <v>0.52279944975629633</v>
+        <v>0.60051288147682691</v>
       </c>
       <c r="G66" s="134">
         <f t="shared" si="4"/>
-        <v>0.47091690301105582</v>
+        <v>0.51860469065774495</v>
       </c>
       <c r="H66" s="134">
         <f t="shared" si="4"/>
-        <v>0.53957753387337559</v>
+        <v>0.60381295457258688</v>
       </c>
       <c r="I66" s="134">
         <f t="shared" si="4"/>
-        <v>0.64746474647464736</v>
+        <v>0.73327332733273309</v>
       </c>
       <c r="J66" s="134">
         <f t="shared" si="4"/>
-        <v>0.56165616561656162</v>
+        <v>0.65526552655265524</v>
       </c>
       <c r="K66" s="140">
         <f t="shared" si="4"/>
-        <v>0.54574257425742556</v>
+        <v>0.62760396039603938</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -34752,31 +34752,31 @@
       </c>
       <c r="E67" s="135">
         <f t="shared" ref="E67:K82" si="5">E210*E$140</f>
-        <v>0.51627804289862944</v>
+        <v>0.57062310004585359</v>
       </c>
       <c r="F67" s="135">
         <f t="shared" si="5"/>
-        <v>0.49012448414652782</v>
+        <v>0.56298082638452518</v>
       </c>
       <c r="G67" s="135">
         <f t="shared" si="5"/>
-        <v>0.43324355077017129</v>
+        <v>0.47711631540512534</v>
       </c>
       <c r="H67" s="135">
         <f t="shared" si="5"/>
-        <v>0.50103628145384882</v>
+        <v>0.56068345781740225</v>
       </c>
       <c r="I67" s="135">
         <f t="shared" si="5"/>
-        <v>0.56113611361136118</v>
+        <v>0.63550355035503547</v>
       </c>
       <c r="J67" s="135">
         <f t="shared" si="5"/>
-        <v>0.56165616561656162</v>
+        <v>0.65526552655265524</v>
       </c>
       <c r="K67" s="142">
         <f t="shared" si="5"/>
-        <v>0.54574257425742556</v>
+        <v>0.62760396039603938</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -34795,31 +34795,31 @@
       </c>
       <c r="E68" s="134">
         <f t="shared" si="5"/>
-        <v>0.54854542057979372</v>
+        <v>0.60628704379871934</v>
       </c>
       <c r="F68" s="134">
         <f t="shared" si="5"/>
-        <v>0.52279944975629633</v>
+        <v>0.60051288147682691</v>
       </c>
       <c r="G68" s="134">
         <f t="shared" si="5"/>
-        <v>0.43324355077017129</v>
+        <v>0.47711631540512534</v>
       </c>
       <c r="H68" s="134">
         <f t="shared" si="5"/>
-        <v>0.50103628145384882</v>
+        <v>0.56068345781740225</v>
       </c>
       <c r="I68" s="134">
         <f t="shared" si="5"/>
-        <v>0.56113611361136118</v>
+        <v>0.63550355035503547</v>
       </c>
       <c r="J68" s="134">
         <f t="shared" si="5"/>
-        <v>0.56165616561656162</v>
+        <v>0.65526552655265524</v>
       </c>
       <c r="K68" s="140">
         <f t="shared" si="5"/>
-        <v>0.54574257425742556</v>
+        <v>0.62760396039603938</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -34838,31 +34838,31 @@
       </c>
       <c r="E69" s="135">
         <f t="shared" si="5"/>
-        <v>0.54854542057979372</v>
+        <v>0.60628704379871934</v>
       </c>
       <c r="F69" s="135">
         <f t="shared" si="5"/>
-        <v>0.52279944975629633</v>
+        <v>0.60051288147682691</v>
       </c>
       <c r="G69" s="135">
         <f t="shared" si="5"/>
-        <v>0.47091690301105582</v>
+        <v>0.51860469065774495</v>
       </c>
       <c r="H69" s="135">
         <f t="shared" si="5"/>
-        <v>0.53957753387337559</v>
+        <v>0.60381295457258688</v>
       </c>
       <c r="I69" s="135">
         <f t="shared" si="5"/>
-        <v>0.58703470347034703</v>
+        <v>0.66483448344834484</v>
       </c>
       <c r="J69" s="135">
         <f t="shared" si="5"/>
-        <v>0.55419823985039662</v>
+        <v>0.6465646131587961</v>
       </c>
       <c r="K69" s="142">
         <f t="shared" si="5"/>
-        <v>0.54044051183746145</v>
+        <v>0.62150658861308061</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -34881,31 +34881,31 @@
       </c>
       <c r="E70" s="134">
         <f t="shared" si="5"/>
-        <v>0.53544103198002813</v>
+        <v>0.59180324587266264</v>
       </c>
       <c r="F70" s="134">
         <f t="shared" si="5"/>
-        <v>0.48535283733271861</v>
+        <v>0.55749988072001466</v>
       </c>
       <c r="G70" s="134">
         <f t="shared" si="5"/>
-        <v>0.42696465873002398</v>
+        <v>0.47020158619635549</v>
       </c>
       <c r="H70" s="134">
         <f t="shared" si="5"/>
-        <v>0.46249502903432194</v>
+        <v>0.5175539610622174</v>
       </c>
       <c r="I70" s="134">
         <f t="shared" si="5"/>
-        <v>0.50070607060706063</v>
+        <v>0.56706470647064688</v>
       </c>
       <c r="J70" s="134">
         <f t="shared" si="5"/>
-        <v>0.50549054905490554</v>
+        <v>0.58973897389738983</v>
       </c>
       <c r="K70" s="140">
         <f t="shared" si="5"/>
-        <v>0.49116831683168333</v>
+        <v>0.56484356435643579</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -34924,31 +34924,31 @@
       </c>
       <c r="E71" s="135">
         <f t="shared" si="5"/>
-        <v>0.53544103198002813</v>
+        <v>0.59180324587266264</v>
       </c>
       <c r="F71" s="135">
         <f t="shared" si="5"/>
-        <v>0.48535283733271861</v>
+        <v>0.55749988072001466</v>
       </c>
       <c r="G71" s="135">
         <f t="shared" si="5"/>
-        <v>0.42696465873002398</v>
+        <v>0.47020158619635549</v>
       </c>
       <c r="H71" s="135">
         <f t="shared" si="5"/>
-        <v>0.46249502903432194</v>
+        <v>0.5175539610622174</v>
       </c>
       <c r="I71" s="135">
         <f t="shared" si="5"/>
-        <v>0.50070607060706063</v>
+        <v>0.56706470647064688</v>
       </c>
       <c r="J71" s="135">
         <f t="shared" si="5"/>
-        <v>0.50549054905490554</v>
+        <v>0.58973897389738983</v>
       </c>
       <c r="K71" s="142">
         <f t="shared" si="5"/>
-        <v>0.49116831683168333</v>
+        <v>0.56484356435643579</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -34967,31 +34967,31 @@
       </c>
       <c r="E72" s="134">
         <f t="shared" si="5"/>
-        <v>0.53544103198002813</v>
+        <v>0.59180324587266264</v>
       </c>
       <c r="F72" s="134">
         <f t="shared" si="5"/>
-        <v>0.48535283733271861</v>
+        <v>0.55749988072001466</v>
       </c>
       <c r="G72" s="134">
         <f t="shared" si="5"/>
-        <v>0.4130389480893879</v>
+        <v>0.45486567700983221</v>
       </c>
       <c r="H72" s="134">
         <f t="shared" si="5"/>
-        <v>0.44378444691400926</v>
+        <v>0.49661592868948656</v>
       </c>
       <c r="I72" s="134">
         <f t="shared" si="5"/>
-        <v>0.42918458603271453</v>
+        <v>0.48606447092861649</v>
       </c>
       <c r="J72" s="134">
         <f t="shared" si="5"/>
-        <v>0.39585588560742641</v>
+        <v>0.46183186654199748</v>
       </c>
       <c r="K72" s="140">
         <f t="shared" si="5"/>
-        <v>0.38602893702675783</v>
+        <v>0.4439332775807715</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -35010,31 +35010,31 @@
       </c>
       <c r="E73" s="135">
         <f t="shared" si="5"/>
-        <v>0.61308017594212239</v>
+        <v>0.67761493130445105</v>
       </c>
       <c r="F73" s="135">
         <f t="shared" si="5"/>
-        <v>0.59458275084129053</v>
+        <v>0.68296667326364446</v>
       </c>
       <c r="G73" s="135">
         <f t="shared" si="5"/>
-        <v>0.54300340620523901</v>
+        <v>0.59799109290956698</v>
       </c>
       <c r="H73" s="135">
         <f t="shared" si="5"/>
-        <v>0.62811498200173832</v>
+        <v>0.70289057509718333</v>
       </c>
       <c r="I73" s="135">
         <f t="shared" si="5"/>
-        <v>0.65714939087436608</v>
+        <v>0.74424147882157121</v>
       </c>
       <c r="J73" s="135">
         <f t="shared" si="5"/>
-        <v>0.65999701737857963</v>
+        <v>0.76999652027500953</v>
       </c>
       <c r="K73" s="142">
         <f t="shared" si="5"/>
-        <v>0.70668820303874091</v>
+        <v>0.81269143349455197</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -35053,31 +35053,31 @@
       </c>
       <c r="E74" s="134">
         <f t="shared" si="5"/>
-        <v>0.54854542057979372</v>
+        <v>0.60628704379871934</v>
       </c>
       <c r="F74" s="134">
         <f t="shared" si="5"/>
-        <v>0.52279944975629633</v>
+        <v>0.60051288147682691</v>
       </c>
       <c r="G74" s="134">
         <f t="shared" si="5"/>
-        <v>0.47091690301105582</v>
+        <v>0.51860469065774495</v>
       </c>
       <c r="H74" s="134">
         <f t="shared" si="5"/>
-        <v>0.53957753387337559</v>
+        <v>0.60381295457258688</v>
       </c>
       <c r="I74" s="134">
         <f t="shared" si="5"/>
-        <v>0.58703470347034703</v>
+        <v>0.66483448344834484</v>
       </c>
       <c r="J74" s="134">
         <f t="shared" si="5"/>
-        <v>0.59378382841113952</v>
+        <v>0.69274779981299606</v>
       </c>
       <c r="K74" s="140">
         <f t="shared" si="5"/>
-        <v>0.57904340554013611</v>
+        <v>0.66589991637115653</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -35096,31 +35096,31 @@
       </c>
       <c r="E75" s="135">
         <f t="shared" si="5"/>
-        <v>0.54854542057979372</v>
+        <v>0.60628704379871934</v>
       </c>
       <c r="F75" s="135">
         <f t="shared" si="5"/>
-        <v>0.52279944975629633</v>
+        <v>0.60051288147682691</v>
       </c>
       <c r="G75" s="135">
         <f t="shared" si="5"/>
-        <v>0.47091690301105582</v>
+        <v>0.51860469065774495</v>
       </c>
       <c r="H75" s="135">
         <f t="shared" si="5"/>
-        <v>0.53957753387337559</v>
+        <v>0.60381295457258688</v>
       </c>
       <c r="I75" s="135">
         <f t="shared" si="5"/>
-        <v>0.58703470347034703</v>
+        <v>0.66483448344834484</v>
       </c>
       <c r="J75" s="135">
         <f t="shared" si="5"/>
-        <v>0.59378382841113952</v>
+        <v>0.69274779981299606</v>
       </c>
       <c r="K75" s="142">
         <f t="shared" si="5"/>
-        <v>0.57904340554013611</v>
+        <v>0.66589991637115653</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -35139,31 +35139,31 @@
       </c>
       <c r="E76" s="134">
         <f t="shared" si="5"/>
-        <v>0.54854542057979372</v>
+        <v>0.60628704379871934</v>
       </c>
       <c r="F76" s="134">
         <f t="shared" si="5"/>
-        <v>0.52279944975629633</v>
+        <v>0.60051288147682691</v>
       </c>
       <c r="G76" s="134">
         <f t="shared" si="5"/>
-        <v>0.47091690301105582</v>
+        <v>0.51860469065774495</v>
       </c>
       <c r="H76" s="134">
         <f t="shared" si="5"/>
-        <v>0.53957753387337559</v>
+        <v>0.60381295457258688</v>
       </c>
       <c r="I76" s="134">
         <f t="shared" si="5"/>
-        <v>0.58703470347034703</v>
+        <v>0.66483448344834484</v>
       </c>
       <c r="J76" s="134">
         <f t="shared" si="5"/>
-        <v>0.59378382841113952</v>
+        <v>0.69274779981299606</v>
       </c>
       <c r="K76" s="140">
         <f t="shared" si="5"/>
-        <v>0.57904340554013611</v>
+        <v>0.66589991637115653</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -35182,31 +35182,31 @@
       </c>
       <c r="E77" s="135">
         <f t="shared" si="5"/>
-        <v>0.54854542057979372</v>
+        <v>0.60628704379871934</v>
       </c>
       <c r="F77" s="135">
         <f t="shared" si="5"/>
-        <v>0.52279944975629633</v>
+        <v>0.60051288147682691</v>
       </c>
       <c r="G77" s="135">
         <f t="shared" si="5"/>
-        <v>0.47091690301105582</v>
+        <v>0.51860469065774495</v>
       </c>
       <c r="H77" s="135">
         <f t="shared" si="5"/>
-        <v>0.53957753387337559</v>
+        <v>0.60381295457258688</v>
       </c>
       <c r="I77" s="135">
         <f t="shared" si="5"/>
-        <v>0.58703470347034703</v>
+        <v>0.66483448344834484</v>
       </c>
       <c r="J77" s="135">
         <f t="shared" si="5"/>
-        <v>0.59378382841113952</v>
+        <v>0.69274779981299606</v>
       </c>
       <c r="K77" s="142">
         <f t="shared" si="5"/>
-        <v>0.57904340554013611</v>
+        <v>0.66589991637115653</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -35225,31 +35225,31 @@
       </c>
       <c r="E78" s="159">
         <f t="shared" si="5"/>
-        <v>0.54209194504356084</v>
+        <v>0.59915425504814623</v>
       </c>
       <c r="F78" s="159">
         <f t="shared" si="5"/>
-        <v>0.5097294635123889</v>
+        <v>0.58550005943990613</v>
       </c>
       <c r="G78" s="159">
         <f t="shared" si="5"/>
-        <v>0.48975357913149797</v>
+        <v>0.53934887828405476</v>
       </c>
       <c r="H78" s="159">
         <f t="shared" si="5"/>
-        <v>0.57811878629290236</v>
+        <v>0.64694245132777162</v>
       </c>
       <c r="I78" s="159">
         <f t="shared" si="5"/>
-        <v>0.61001666457092862</v>
+        <v>0.69086224662249751</v>
       </c>
       <c r="J78" s="159">
         <f t="shared" si="5"/>
-        <v>0.60380361523115544</v>
+        <v>0.70443755110301465</v>
       </c>
       <c r="K78" s="160">
         <f t="shared" si="5"/>
-        <v>0.63679596317776632</v>
+        <v>0.73231535765443123</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -35268,31 +35268,31 @@
       </c>
       <c r="E79" s="135">
         <f t="shared" si="5"/>
-        <v>0.54209194504356084</v>
+        <v>0.59915425504814623</v>
       </c>
       <c r="F79" s="135">
         <f t="shared" si="5"/>
-        <v>0.49012448414652782</v>
+        <v>0.56298082638452518</v>
       </c>
       <c r="G79" s="135">
         <f t="shared" si="5"/>
-        <v>0.4646380109709084</v>
+        <v>0.51168996144897505</v>
       </c>
       <c r="H79" s="135">
         <f t="shared" si="5"/>
-        <v>0.57811878629290236</v>
+        <v>0.64694245132777162</v>
       </c>
       <c r="I79" s="135">
         <f t="shared" si="5"/>
-        <v>0.61001666457092862</v>
+        <v>0.69086224662249751</v>
       </c>
       <c r="J79" s="135">
         <f t="shared" si="5"/>
-        <v>0.60380361523115544</v>
+        <v>0.70443755110301465</v>
       </c>
       <c r="K79" s="142">
         <f t="shared" si="5"/>
-        <v>0.63679596317776632</v>
+        <v>0.73231535765443123</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -35311,31 +35311,31 @@
       </c>
       <c r="E80" s="134">
         <f t="shared" si="5"/>
-        <v>0.54209194504356084</v>
+        <v>0.59915425504814623</v>
       </c>
       <c r="F80" s="134">
         <f t="shared" si="5"/>
-        <v>0.52279944975629633</v>
+        <v>0.60051288147682691</v>
       </c>
       <c r="G80" s="134">
         <f t="shared" si="5"/>
-        <v>0.48975357913149797</v>
+        <v>0.53934887828405476</v>
       </c>
       <c r="H80" s="134">
         <f t="shared" si="5"/>
-        <v>0.57811878629290236</v>
+        <v>0.64694245132777162</v>
       </c>
       <c r="I80" s="134">
         <f t="shared" si="5"/>
-        <v>0.61001666457092862</v>
+        <v>0.69086224662249751</v>
       </c>
       <c r="J80" s="134">
         <f t="shared" si="5"/>
-        <v>0.60380361523115544</v>
+        <v>0.70443755110301465</v>
       </c>
       <c r="K80" s="140">
         <f t="shared" si="5"/>
-        <v>0.63679596317776632</v>
+        <v>0.73231535765443123</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -35354,31 +35354,31 @@
       </c>
       <c r="E81" s="135">
         <f t="shared" si="5"/>
-        <v>0.54209194504356084</v>
+        <v>0.59915425504814623</v>
       </c>
       <c r="F81" s="135">
         <f t="shared" si="5"/>
-        <v>0.52279944975629633</v>
+        <v>0.60051288147682691</v>
       </c>
       <c r="G81" s="135">
         <f t="shared" si="5"/>
-        <v>0.5274269313723825</v>
+        <v>0.58083725353667437</v>
       </c>
       <c r="H81" s="135">
         <f t="shared" si="5"/>
-        <v>0.63207653968023991</v>
+        <v>0.7073237467850304</v>
       </c>
       <c r="I81" s="135">
         <f t="shared" si="5"/>
-        <v>0.68199619961996194</v>
+        <v>0.77238123812381232</v>
       </c>
       <c r="J81" s="135">
         <f t="shared" si="5"/>
-        <v>0.60380361523115544</v>
+        <v>0.70443755110301465</v>
       </c>
       <c r="K81" s="142">
         <f t="shared" si="5"/>
-        <v>0.54574257425742556</v>
+        <v>0.62760396039603938</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -35397,31 +35397,31 @@
       </c>
       <c r="E82" s="134">
         <f t="shared" si="5"/>
-        <v>0.54209194504356084</v>
+        <v>0.59915425504814623</v>
       </c>
       <c r="F82" s="134">
         <f t="shared" si="5"/>
-        <v>0.5097294635123889</v>
+        <v>0.58550005943990613</v>
       </c>
       <c r="G82" s="134">
         <f t="shared" si="5"/>
-        <v>0.48975357913149797</v>
+        <v>0.53934887828405476</v>
       </c>
       <c r="H82" s="134">
         <f t="shared" si="5"/>
-        <v>0.57811878629290236</v>
+        <v>0.64694245132777162</v>
       </c>
       <c r="I82" s="134">
         <f t="shared" si="5"/>
-        <v>0.61001666457092862</v>
+        <v>0.69086224662249751</v>
       </c>
       <c r="J82" s="134">
         <f t="shared" si="5"/>
-        <v>0.60380361523115544</v>
+        <v>0.70443755110301465</v>
       </c>
       <c r="K82" s="140">
         <f t="shared" si="5"/>
-        <v>0.63679596317776632</v>
+        <v>0.73231535765443123</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -35440,31 +35440,31 @@
       </c>
       <c r="E83" s="135">
         <f t="shared" ref="E83:K98" si="7">E226*E$140</f>
-        <v>0.54209194504356084</v>
+        <v>0.59915425504814623</v>
       </c>
       <c r="F83" s="135">
         <f t="shared" si="7"/>
-        <v>0.5097294635123889</v>
+        <v>0.58550005943990613</v>
       </c>
       <c r="G83" s="135">
         <f t="shared" si="7"/>
-        <v>0.48975357913149797</v>
+        <v>0.53934887828405476</v>
       </c>
       <c r="H83" s="135">
         <f t="shared" si="7"/>
-        <v>0.57811878629290236</v>
+        <v>0.64694245132777162</v>
       </c>
       <c r="I83" s="135">
         <f t="shared" si="7"/>
-        <v>0.61001666457092862</v>
+        <v>0.69086224662249751</v>
       </c>
       <c r="J83" s="135">
         <f t="shared" si="7"/>
-        <v>0.60380361523115544</v>
+        <v>0.70443755110301465</v>
       </c>
       <c r="K83" s="142">
         <f t="shared" si="7"/>
-        <v>0.63679596317776632</v>
+        <v>0.73231535765443123</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -35483,31 +35483,31 @@
       </c>
       <c r="E84" s="134">
         <f t="shared" si="7"/>
-        <v>0.52273151843486232</v>
+        <v>0.5777558887964267</v>
       </c>
       <c r="F84" s="134">
         <f t="shared" si="7"/>
-        <v>0.52279944975629633</v>
+        <v>0.60051288147682691</v>
       </c>
       <c r="G84" s="134">
         <f t="shared" si="7"/>
-        <v>0.48975357913149797</v>
+        <v>0.53934887828405476</v>
       </c>
       <c r="H84" s="134">
         <f t="shared" si="7"/>
-        <v>0.57811878629290236</v>
+        <v>0.64694245132777162</v>
       </c>
       <c r="I84" s="134">
         <f t="shared" si="7"/>
-        <v>0.61001666457092862</v>
+        <v>0.69086224662249751</v>
       </c>
       <c r="J84" s="134">
         <f t="shared" si="7"/>
-        <v>0.60380361523115544</v>
+        <v>0.70443755110301465</v>
       </c>
       <c r="K84" s="140">
         <f t="shared" si="7"/>
-        <v>0.63679596317776632</v>
+        <v>0.73231535765443123</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -35526,31 +35526,31 @@
       </c>
       <c r="E85" s="135">
         <f t="shared" si="7"/>
-        <v>0.58081279826095822</v>
+        <v>0.64195098755158531</v>
       </c>
       <c r="F85" s="135">
         <f t="shared" si="7"/>
-        <v>0.5554744153660649</v>
+        <v>0.63804493656912853</v>
       </c>
       <c r="G85" s="135">
         <f t="shared" si="7"/>
-        <v>0.47719579505120324</v>
+        <v>0.52551941986651496</v>
       </c>
       <c r="H85" s="135">
         <f t="shared" si="7"/>
-        <v>0.57041053580899692</v>
+        <v>0.63831655197673465</v>
       </c>
       <c r="I85" s="135">
         <f t="shared" si="7"/>
-        <v>0.56976897689768968</v>
+        <v>0.64528052805280522</v>
       </c>
       <c r="J85" s="135">
         <f t="shared" si="7"/>
-        <v>0.56165616561656162</v>
+        <v>0.65526552655265524</v>
       </c>
       <c r="K85" s="142">
         <f t="shared" si="7"/>
-        <v>0.60031683168316841</v>
+        <v>0.69036435643564364</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -35569,31 +35569,31 @@
       </c>
       <c r="E86" s="134">
         <f t="shared" si="7"/>
-        <v>0.58081279826095822</v>
+        <v>0.64195098755158531</v>
       </c>
       <c r="F86" s="134">
         <f t="shared" si="7"/>
-        <v>0.5554744153660649</v>
+        <v>0.63804493656912853</v>
       </c>
       <c r="G86" s="134">
         <f t="shared" si="7"/>
-        <v>0.47719579505120324</v>
+        <v>0.52551941986651496</v>
       </c>
       <c r="H86" s="134">
         <f t="shared" si="7"/>
-        <v>0.57041053580899692</v>
+        <v>0.63831655197673465</v>
       </c>
       <c r="I86" s="134">
         <f t="shared" si="7"/>
-        <v>0.56976897689768968</v>
+        <v>0.64528052805280522</v>
       </c>
       <c r="J86" s="134">
         <f t="shared" si="7"/>
-        <v>0.56165616561656162</v>
+        <v>0.65526552655265524</v>
       </c>
       <c r="K86" s="140">
         <f t="shared" si="7"/>
-        <v>0.60031683168316841</v>
+        <v>0.69036435643564364</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -35612,31 +35612,31 @@
       </c>
       <c r="E87" s="135">
         <f t="shared" si="7"/>
-        <v>0.59924697328171705</v>
+        <v>0.66232560204821356</v>
       </c>
       <c r="F87" s="135">
         <f t="shared" si="7"/>
-        <v>0.57473181639348903</v>
+        <v>0.66016492423576445</v>
       </c>
       <c r="G87" s="135">
         <f t="shared" si="7"/>
-        <v>0.51810300865600389</v>
+        <v>0.57056913611483973</v>
       </c>
       <c r="H87" s="135">
         <f t="shared" si="7"/>
-        <v>0.59128739348046322</v>
+        <v>0.661678749847185</v>
       </c>
       <c r="I87" s="135">
         <f t="shared" si="7"/>
-        <v>0.63883188318831874</v>
+        <v>0.72349634963496345</v>
       </c>
       <c r="J87" s="135">
         <f t="shared" si="7"/>
-        <v>0.6459045904590458</v>
+        <v>0.75355535553555342</v>
       </c>
       <c r="K87" s="142">
         <f t="shared" si="7"/>
-        <v>0.68763564356435647</v>
+        <v>0.79078099009900993</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -35655,31 +35655,31 @@
       </c>
       <c r="E88" s="134">
         <f t="shared" si="7"/>
-        <v>0.61308017594212239</v>
+        <v>0.67761493130445105</v>
       </c>
       <c r="F88" s="134">
         <f t="shared" si="7"/>
-        <v>0.59458275084129053</v>
+        <v>0.68296667326364446</v>
       </c>
       <c r="G88" s="134">
         <f t="shared" si="7"/>
-        <v>0.54300340620523901</v>
+        <v>0.59799109290956698</v>
       </c>
       <c r="H88" s="134">
         <f t="shared" si="7"/>
-        <v>0.62811498200173832</v>
+        <v>0.70289057509718333</v>
       </c>
       <c r="I88" s="134">
         <f t="shared" si="7"/>
-        <v>0.65714939087436608</v>
+        <v>0.74424147882157121</v>
       </c>
       <c r="J88" s="134">
         <f t="shared" si="7"/>
-        <v>0.65999701737857963</v>
+        <v>0.76999652027500953</v>
       </c>
       <c r="K88" s="140">
         <f t="shared" si="7"/>
-        <v>0.70668820303874091</v>
+        <v>0.81269143349455197</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -35698,31 +35698,31 @@
       </c>
       <c r="E89" s="135">
         <f t="shared" si="7"/>
-        <v>0.54209194504356084</v>
+        <v>0.59915425504814623</v>
       </c>
       <c r="F89" s="135">
         <f t="shared" si="7"/>
-        <v>0.52279944975629633</v>
+        <v>0.60051288147682691</v>
       </c>
       <c r="G89" s="135">
         <f t="shared" si="7"/>
-        <v>0.48975357913149797</v>
+        <v>0.53934887828405476</v>
       </c>
       <c r="H89" s="135">
         <f t="shared" si="7"/>
-        <v>0.57811878629290236</v>
+        <v>0.64694245132777162</v>
       </c>
       <c r="I89" s="135">
         <f t="shared" si="7"/>
-        <v>0.61001666457092862</v>
+        <v>0.69086224662249751</v>
       </c>
       <c r="J89" s="135">
         <f t="shared" si="7"/>
-        <v>0.60380361523115544</v>
+        <v>0.70443755110301465</v>
       </c>
       <c r="K89" s="142">
         <f t="shared" si="7"/>
-        <v>0.63679596317776632</v>
+        <v>0.73231535765443123</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -35741,31 +35741,31 @@
       </c>
       <c r="E90" s="134">
         <f t="shared" si="7"/>
-        <v>0.54209194504356084</v>
+        <v>0.59915425504814623</v>
       </c>
       <c r="F90" s="134">
         <f t="shared" si="7"/>
-        <v>0.52279944975629633</v>
+        <v>0.60051288147682691</v>
       </c>
       <c r="G90" s="134">
         <f t="shared" si="7"/>
-        <v>0.48975357913149797</v>
+        <v>0.53934887828405476</v>
       </c>
       <c r="H90" s="134">
         <f t="shared" si="7"/>
-        <v>0.57811878629290236</v>
+        <v>0.64694245132777162</v>
       </c>
       <c r="I90" s="134">
         <f t="shared" si="7"/>
-        <v>0.61001666457092862</v>
+        <v>0.69086224662249751</v>
       </c>
       <c r="J90" s="134">
         <f t="shared" si="7"/>
-        <v>0.60380361523115544</v>
+        <v>0.70443755110301465</v>
       </c>
       <c r="K90" s="140">
         <f t="shared" si="7"/>
-        <v>0.63679596317776632</v>
+        <v>0.73231535765443123</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -35784,31 +35784,31 @@
       </c>
       <c r="E91" s="135">
         <f t="shared" si="7"/>
-        <v>0.54209194504356084</v>
+        <v>0.59915425504814623</v>
       </c>
       <c r="F91" s="135">
         <f t="shared" si="7"/>
-        <v>0.52279944975629633</v>
+        <v>0.60051288147682691</v>
       </c>
       <c r="G91" s="135">
         <f t="shared" si="7"/>
-        <v>0.48975357913149797</v>
+        <v>0.53934887828405476</v>
       </c>
       <c r="H91" s="135">
         <f t="shared" si="7"/>
-        <v>0.57811878629290236</v>
+        <v>0.64694245132777162</v>
       </c>
       <c r="I91" s="135">
         <f t="shared" si="7"/>
-        <v>0.61001666457092862</v>
+        <v>0.69086224662249751</v>
       </c>
       <c r="J91" s="135">
         <f t="shared" si="7"/>
-        <v>0.60380361523115544</v>
+        <v>0.70443755110301465</v>
       </c>
       <c r="K91" s="142">
         <f t="shared" si="7"/>
-        <v>0.63679596317776632</v>
+        <v>0.73231535765443123</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -35827,31 +35827,31 @@
       </c>
       <c r="E92" s="147">
         <f t="shared" si="7"/>
-        <v>0.54209194504356084</v>
+        <v>0.59915425504814623</v>
       </c>
       <c r="F92" s="147">
         <f t="shared" si="7"/>
-        <v>0.52279944975629633</v>
+        <v>0.60051288147682691</v>
       </c>
       <c r="G92" s="147">
         <f t="shared" si="7"/>
-        <v>0.48975357913149797</v>
+        <v>0.53934887828405476</v>
       </c>
       <c r="H92" s="147">
         <f t="shared" si="7"/>
-        <v>0.57811878629290236</v>
+        <v>0.64694245132777162</v>
       </c>
       <c r="I92" s="147">
         <f t="shared" si="7"/>
-        <v>0.61001666457092862</v>
+        <v>0.69086224662249751</v>
       </c>
       <c r="J92" s="147">
         <f t="shared" si="7"/>
-        <v>0.60380361523115544</v>
+        <v>0.70443755110301465</v>
       </c>
       <c r="K92" s="161">
         <f t="shared" si="7"/>
-        <v>0.63679596317776632</v>
+        <v>0.73231535765443123</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -35870,31 +35870,31 @@
       </c>
       <c r="E93" s="137">
         <f t="shared" si="7"/>
-        <v>0.59371974933342386</v>
+        <v>0.65621656505273163</v>
       </c>
       <c r="F93" s="137">
         <f t="shared" si="7"/>
-        <v>0.57507939473192593</v>
+        <v>0.66056416962450948</v>
       </c>
       <c r="G93" s="137">
         <f t="shared" si="7"/>
-        <v>0.53998471545267723</v>
+        <v>0.59466671195421417</v>
       </c>
       <c r="H93" s="137">
         <f t="shared" si="7"/>
-        <v>0.66290954161586135</v>
+        <v>0.74182734418917817</v>
       </c>
       <c r="I93" s="137">
         <f t="shared" si="7"/>
-        <v>0.69062906290629056</v>
+        <v>0.78215821582158207</v>
       </c>
       <c r="J93" s="137">
         <f t="shared" si="7"/>
-        <v>0.7301530153015301</v>
+        <v>0.85184518451845181</v>
       </c>
       <c r="K93" s="138">
         <f t="shared" si="7"/>
-        <v>0.81861386138613867</v>
+        <v>0.94140594059405935</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -35913,31 +35913,31 @@
       </c>
       <c r="E94" s="134">
         <f t="shared" si="7"/>
-        <v>0.58081279826095822</v>
+        <v>0.64195098755158531</v>
       </c>
       <c r="F94" s="134">
         <f t="shared" si="7"/>
-        <v>0.5620094084880185</v>
+        <v>0.64555134758758881</v>
       </c>
       <c r="G94" s="134">
         <f t="shared" si="7"/>
-        <v>0.5274269313723825</v>
+        <v>0.58083725353667437</v>
       </c>
       <c r="H94" s="134">
         <f t="shared" si="7"/>
-        <v>0.60124353774461836</v>
+        <v>0.67282014938088253</v>
       </c>
       <c r="I94" s="134">
         <f t="shared" si="7"/>
-        <v>0.62156615661566139</v>
+        <v>0.70394239423942384</v>
       </c>
       <c r="J94" s="134">
         <f t="shared" si="7"/>
-        <v>0.66462646264626468</v>
+        <v>0.77539753975397552</v>
       </c>
       <c r="K94" s="140">
         <f t="shared" si="7"/>
-        <v>0.76403960396039605</v>
+        <v>0.87864554455445543</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -35956,31 +35956,31 @@
       </c>
       <c r="E95" s="135">
         <f t="shared" si="7"/>
-        <v>0.59371974933342386</v>
+        <v>0.65621656505273163</v>
       </c>
       <c r="F95" s="135">
         <f t="shared" si="7"/>
-        <v>0.57507939473192593</v>
+        <v>0.66056416962450948</v>
       </c>
       <c r="G95" s="135">
         <f t="shared" si="7"/>
-        <v>0.56510028361326703</v>
+        <v>0.62232562878929398</v>
       </c>
       <c r="H95" s="135">
         <f t="shared" si="7"/>
-        <v>0.69374254355148279</v>
+        <v>0.77633094159332594</v>
       </c>
       <c r="I95" s="135">
         <f t="shared" si="7"/>
-        <v>0.75969196919691961</v>
+        <v>0.8603740374037403</v>
       </c>
       <c r="J95" s="135">
         <f t="shared" si="7"/>
-        <v>0.7301530153015301</v>
+        <v>0.85184518451845181</v>
       </c>
       <c r="K95" s="142">
         <f t="shared" si="7"/>
-        <v>0.81861386138613867</v>
+        <v>0.94140594059405935</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -35999,31 +35999,31 @@
       </c>
       <c r="E96" s="134">
         <f t="shared" si="7"/>
-        <v>0.55403087478559165</v>
+        <v>0.61234991423670648</v>
       </c>
       <c r="F96" s="134">
         <f t="shared" si="7"/>
-        <v>0.52802744425385939</v>
+        <v>0.60651801029159513</v>
       </c>
       <c r="G96" s="134">
         <f t="shared" si="7"/>
-        <v>0.47562607204116647</v>
+        <v>0.52379073756432248</v>
       </c>
       <c r="H96" s="134">
         <f t="shared" si="7"/>
-        <v>0.5559272727272726</v>
+        <v>0.62210909090909083</v>
       </c>
       <c r="I96" s="134">
         <f t="shared" si="7"/>
-        <v>0.56674747474747467</v>
+        <v>0.6418585858585858</v>
       </c>
       <c r="J96" s="134">
         <f t="shared" si="7"/>
-        <v>0.56727272727272726</v>
+        <v>0.66181818181818175</v>
       </c>
       <c r="K96" s="140">
         <f t="shared" si="7"/>
-        <v>0.60632000000000008</v>
+        <v>0.697268</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -36042,31 +36042,31 @@
       </c>
       <c r="E97" s="135">
         <f t="shared" si="7"/>
-        <v>0.45174328753630072</v>
+        <v>0.49929521254012182</v>
       </c>
       <c r="F97" s="135">
         <f t="shared" si="7"/>
-        <v>0.44437953229285193</v>
+        <v>0.51043594925530289</v>
       </c>
       <c r="G97" s="135">
         <f t="shared" si="7"/>
-        <v>0.40812798260958177</v>
+        <v>0.44945739857004574</v>
       </c>
       <c r="H97" s="135">
         <f t="shared" si="7"/>
-        <v>0.50103628145384882</v>
+        <v>0.56068345781740225</v>
       </c>
       <c r="I97" s="135">
         <f t="shared" si="7"/>
-        <v>0.58703470347034703</v>
+        <v>0.66483448344834484</v>
       </c>
       <c r="J97" s="135">
         <f t="shared" si="7"/>
-        <v>0.60846084608460849</v>
+        <v>0.70987098709870999</v>
       </c>
       <c r="K97" s="142">
         <f t="shared" si="7"/>
-        <v>0.6767207920792081</v>
+        <v>0.77822891089108925</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -36085,31 +36085,31 @@
       </c>
       <c r="E98" s="134">
         <f t="shared" si="7"/>
-        <v>0.59371974933342386</v>
+        <v>0.65621656505273163</v>
       </c>
       <c r="F98" s="134">
         <f t="shared" si="7"/>
-        <v>0.57507939473192593</v>
+        <v>0.66056416962450948</v>
       </c>
       <c r="G98" s="134">
         <f t="shared" si="7"/>
-        <v>0.50231136321179293</v>
+        <v>0.55317833670159466</v>
       </c>
       <c r="H98" s="134">
         <f t="shared" si="7"/>
-        <v>0.58582703677680759</v>
+        <v>0.65556835067880859</v>
       </c>
       <c r="I98" s="134">
         <f t="shared" si="7"/>
-        <v>0.63883188318831874</v>
+        <v>0.72349634963496345</v>
       </c>
       <c r="J98" s="134">
         <f t="shared" si="7"/>
-        <v>0.68334833483348334</v>
+        <v>0.79723972397239717</v>
       </c>
       <c r="K98" s="140">
         <f t="shared" si="7"/>
-        <v>0.78586930693069312</v>
+        <v>0.903749702970297</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -36128,31 +36128,31 @@
       </c>
       <c r="E99" s="135">
         <f t="shared" ref="E99:K114" si="8">E242*E$140</f>
-        <v>0.62506420900672888</v>
+        <v>0.69086044153375292</v>
       </c>
       <c r="F99" s="135">
         <f t="shared" si="8"/>
-        <v>0.62082434658560182</v>
+        <v>0.71310904675373188</v>
       </c>
       <c r="G99" s="135">
         <f t="shared" si="8"/>
-        <v>0.5902158517738566</v>
+        <v>0.64998454562437369</v>
       </c>
       <c r="H99" s="135">
         <f t="shared" si="8"/>
-        <v>0.71686729500319901</v>
+        <v>0.80220863964643696</v>
       </c>
       <c r="I99" s="135">
         <f t="shared" si="8"/>
-        <v>0.79422342234223409</v>
+        <v>0.8994819481948193</v>
       </c>
       <c r="J99" s="135">
         <f t="shared" si="8"/>
-        <v>0.82376237623762372</v>
+        <v>0.96105610561056098</v>
       </c>
       <c r="K99" s="142">
         <f t="shared" si="8"/>
-        <v>0.91684752475247544</v>
+        <v>1.0543746534653466</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -36171,31 +36171,31 @@
       </c>
       <c r="E100" s="134">
         <f t="shared" si="8"/>
-        <v>0.62506420900672888</v>
+        <v>0.69086044153375292</v>
       </c>
       <c r="F100" s="134">
         <f t="shared" si="8"/>
-        <v>0.62042044649870409</v>
+        <v>0.71264510746472776</v>
       </c>
       <c r="G100" s="134">
         <f t="shared" si="8"/>
-        <v>0.5805604918957572</v>
+        <v>0.63935142778393517</v>
       </c>
       <c r="H100" s="134">
         <f t="shared" si="8"/>
-        <v>0.70145079403538813</v>
+        <v>0.78495684094436291</v>
       </c>
       <c r="I100" s="134">
         <f t="shared" si="8"/>
-        <v>0.76832483248324812</v>
+        <v>0.87015101510150994</v>
       </c>
       <c r="J100" s="134">
         <f t="shared" si="8"/>
-        <v>0.79567956795679562</v>
+        <v>0.92829282928292822</v>
       </c>
       <c r="K100" s="140">
         <f t="shared" si="8"/>
-        <v>0.8731881188118813</v>
+        <v>1.0041663366336635</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -36214,31 +36214,31 @@
       </c>
       <c r="E101" s="135">
         <f t="shared" si="8"/>
-        <v>0.62506420900672888</v>
+        <v>0.69086044153375292</v>
       </c>
       <c r="F101" s="135">
         <f t="shared" si="8"/>
-        <v>0.62042044649870409</v>
+        <v>0.71264510746472776</v>
       </c>
       <c r="G101" s="135">
         <f t="shared" si="8"/>
-        <v>0.5805604918957572</v>
+        <v>0.63935142778393517</v>
       </c>
       <c r="H101" s="135">
         <f t="shared" si="8"/>
-        <v>0.70145079403538813</v>
+        <v>0.78495684094436291</v>
       </c>
       <c r="I101" s="135">
         <f t="shared" si="8"/>
-        <v>0.76832483248324812</v>
+        <v>0.87015101510150994</v>
       </c>
       <c r="J101" s="135">
         <f t="shared" si="8"/>
-        <v>0.79567956795679562</v>
+        <v>0.92829282928292822</v>
       </c>
       <c r="K101" s="142">
         <f t="shared" si="8"/>
-        <v>0.8731881188118813</v>
+        <v>1.0041663366336635</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -36257,31 +36257,31 @@
       </c>
       <c r="E102" s="134">
         <f t="shared" si="8"/>
-        <v>0.62506420900672888</v>
+        <v>0.69086044153375292</v>
       </c>
       <c r="F102" s="134">
         <f t="shared" si="8"/>
-        <v>0.62042044649870409</v>
+        <v>0.71264510746472776</v>
       </c>
       <c r="G102" s="134">
         <f t="shared" si="8"/>
-        <v>0.5805604918957572</v>
+        <v>0.63935142778393517</v>
       </c>
       <c r="H102" s="134">
         <f t="shared" si="8"/>
-        <v>0.68928222605792966</v>
+        <v>0.7713396339219688</v>
       </c>
       <c r="I102" s="134">
         <f t="shared" si="8"/>
-        <v>0.74094294621447387</v>
+        <v>0.83914020414651258</v>
       </c>
       <c r="J102" s="134">
         <f t="shared" si="8"/>
-        <v>0.77695769576957685</v>
+        <v>0.90645064506450634</v>
       </c>
       <c r="K102" s="140">
         <f t="shared" si="8"/>
-        <v>0.8731881188118813</v>
+        <v>1.0041663366336635</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -36300,31 +36300,31 @@
       </c>
       <c r="E103" s="135">
         <f t="shared" si="8"/>
-        <v>0.61308017594212239</v>
+        <v>0.67761493130445105</v>
       </c>
       <c r="F103" s="135">
         <f t="shared" si="8"/>
-        <v>0.59458275084129053</v>
+        <v>0.68296667326364446</v>
       </c>
       <c r="G103" s="135">
         <f t="shared" si="8"/>
-        <v>0.54300340620523901</v>
+        <v>0.59799109290956698</v>
       </c>
       <c r="H103" s="135">
         <f t="shared" si="8"/>
-        <v>0.62811498200173832</v>
+        <v>0.70289057509718333</v>
       </c>
       <c r="I103" s="135">
         <f t="shared" si="8"/>
-        <v>0.65714939087436608</v>
+        <v>0.74424147882157121</v>
       </c>
       <c r="J103" s="135">
         <f t="shared" si="8"/>
-        <v>0.65999701737857963</v>
+        <v>0.76999652027500953</v>
       </c>
       <c r="K103" s="142">
         <f t="shared" si="8"/>
-        <v>0.70668820303874091</v>
+        <v>0.81269143349455197</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -36343,31 +36343,31 @@
       </c>
       <c r="E104" s="134">
         <f t="shared" si="8"/>
-        <v>0.59371974933342386</v>
+        <v>0.65621656505273163</v>
       </c>
       <c r="F104" s="134">
         <f t="shared" si="8"/>
-        <v>0.57507939473192593</v>
+        <v>0.66056416962450948</v>
       </c>
       <c r="G104" s="134">
         <f t="shared" si="8"/>
-        <v>0.53998471545267723</v>
+        <v>0.59466671195421417</v>
       </c>
       <c r="H104" s="134">
         <f t="shared" si="8"/>
-        <v>0.66290954161586135</v>
+        <v>0.74182734418917817</v>
       </c>
       <c r="I104" s="134">
         <f t="shared" si="8"/>
-        <v>0.69062906290629056</v>
+        <v>0.78215821582158207</v>
       </c>
       <c r="J104" s="134">
         <f t="shared" si="8"/>
-        <v>0.7301530153015301</v>
+        <v>0.85184518451845181</v>
       </c>
       <c r="K104" s="140">
         <f t="shared" si="8"/>
-        <v>0.81861386138613867</v>
+        <v>0.94140594059405935</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -36386,31 +36386,31 @@
       </c>
       <c r="E105" s="135">
         <f t="shared" si="8"/>
-        <v>0.59371974933342386</v>
+        <v>0.65621656505273163</v>
       </c>
       <c r="F105" s="135">
         <f t="shared" si="8"/>
-        <v>0.57507939473192593</v>
+        <v>0.66056416962450948</v>
       </c>
       <c r="G105" s="135">
         <f t="shared" si="8"/>
-        <v>0.53998471545267723</v>
+        <v>0.59466671195421417</v>
       </c>
       <c r="H105" s="135">
         <f t="shared" si="8"/>
-        <v>0.66290954161586135</v>
+        <v>0.74182734418917817</v>
       </c>
       <c r="I105" s="135">
         <f t="shared" si="8"/>
-        <v>0.69062906290629056</v>
+        <v>0.78215821582158207</v>
       </c>
       <c r="J105" s="135">
         <f t="shared" si="8"/>
-        <v>0.7301530153015301</v>
+        <v>0.85184518451845181</v>
       </c>
       <c r="K105" s="142">
         <f t="shared" si="8"/>
-        <v>0.81861386138613867</v>
+        <v>0.94140594059405935</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -36429,31 +36429,31 @@
       </c>
       <c r="E106" s="134">
         <f t="shared" si="8"/>
-        <v>0.59371974933342386</v>
+        <v>0.65621656505273163</v>
       </c>
       <c r="F106" s="134">
         <f t="shared" si="8"/>
-        <v>0.57507939473192593</v>
+        <v>0.66056416962450948</v>
       </c>
       <c r="G106" s="134">
         <f t="shared" si="8"/>
-        <v>0.53998471545267723</v>
+        <v>0.59466671195421417</v>
       </c>
       <c r="H106" s="134">
         <f t="shared" si="8"/>
-        <v>0.66290954161586135</v>
+        <v>0.74182734418917817</v>
       </c>
       <c r="I106" s="134">
         <f t="shared" si="8"/>
-        <v>0.69062906290629056</v>
+        <v>0.78215821582158207</v>
       </c>
       <c r="J106" s="134">
         <f t="shared" si="8"/>
-        <v>0.7301530153015301</v>
+        <v>0.85184518451845181</v>
       </c>
       <c r="K106" s="140">
         <f t="shared" si="8"/>
-        <v>0.81861386138613867</v>
+        <v>0.94140594059405935</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -36472,31 +36472,31 @@
       </c>
       <c r="E107" s="135">
         <f t="shared" si="8"/>
-        <v>0.59371974933342386</v>
+        <v>0.65621656505273163</v>
       </c>
       <c r="F107" s="135">
         <f t="shared" si="8"/>
-        <v>0.57507939473192593</v>
+        <v>0.66056416962450948</v>
       </c>
       <c r="G107" s="135">
         <f t="shared" si="8"/>
-        <v>0.53998471545267723</v>
+        <v>0.59466671195421417</v>
       </c>
       <c r="H107" s="135">
         <f t="shared" si="8"/>
-        <v>0.66290954161586135</v>
+        <v>0.74182734418917817</v>
       </c>
       <c r="I107" s="135">
         <f t="shared" si="8"/>
-        <v>0.69062906290629056</v>
+        <v>0.78215821582158207</v>
       </c>
       <c r="J107" s="135">
         <f t="shared" si="8"/>
-        <v>0.7301530153015301</v>
+        <v>0.85184518451845181</v>
       </c>
       <c r="K107" s="142">
         <f t="shared" si="8"/>
-        <v>0.81861386138613867</v>
+        <v>0.94140594059405935</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -36515,31 +36515,31 @@
       </c>
       <c r="E108" s="159">
         <f t="shared" si="8"/>
-        <v>0.58009869326166719</v>
+        <v>0.64116171360500052</v>
       </c>
       <c r="F108" s="159">
         <f t="shared" si="8"/>
-        <v>0.5554744153660649</v>
+        <v>0.63804493656912853</v>
       </c>
       <c r="G108" s="159">
         <f t="shared" si="8"/>
-        <v>0.47719579505120324</v>
+        <v>0.52551941986651496</v>
       </c>
       <c r="H108" s="159">
         <f t="shared" si="8"/>
-        <v>0.61666003871242925</v>
+        <v>0.69007194808295658</v>
       </c>
       <c r="I108" s="159">
         <f t="shared" si="8"/>
-        <v>0.612933293329333</v>
+        <v>0.6941654165416542</v>
       </c>
       <c r="J108" s="159">
         <f t="shared" si="8"/>
-        <v>0.58037803780378039</v>
+        <v>0.67710771077107723</v>
       </c>
       <c r="K108" s="160">
         <f t="shared" si="8"/>
-        <v>0.60031683168316841</v>
+        <v>0.69036435643564364</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -36558,31 +36558,31 @@
       </c>
       <c r="E109" s="135">
         <f t="shared" si="8"/>
-        <v>0.58009869326166719</v>
+        <v>0.64116171360500052</v>
       </c>
       <c r="F109" s="135">
         <f t="shared" si="8"/>
-        <v>0.5554744153660649</v>
+        <v>0.63804493656912853</v>
       </c>
       <c r="G109" s="135">
         <f t="shared" si="8"/>
-        <v>0.5274269313723825</v>
+        <v>0.58083725353667437</v>
       </c>
       <c r="H109" s="135">
         <f t="shared" si="8"/>
-        <v>0.61666003871242925</v>
+        <v>0.69007194808295658</v>
       </c>
       <c r="I109" s="135">
         <f t="shared" si="8"/>
-        <v>0.56113611361136118</v>
+        <v>0.63550355035503547</v>
       </c>
       <c r="J109" s="135">
         <f t="shared" si="8"/>
-        <v>0.50549054905490554</v>
+        <v>0.58973897389738983</v>
       </c>
       <c r="K109" s="142">
         <f t="shared" si="8"/>
-        <v>0.52391287128712871</v>
+        <v>0.60249980198019792</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -36601,31 +36601,31 @@
       </c>
       <c r="E110" s="134">
         <f t="shared" si="8"/>
-        <v>0.58009869326166719</v>
+        <v>0.64116171360500052</v>
       </c>
       <c r="F110" s="134">
         <f t="shared" si="8"/>
-        <v>0.5554744153660649</v>
+        <v>0.63804493656912853</v>
       </c>
       <c r="G110" s="134">
         <f t="shared" si="8"/>
-        <v>0.5274269313723825</v>
+        <v>0.58083725353667437</v>
       </c>
       <c r="H110" s="134">
         <f t="shared" si="8"/>
-        <v>0.62436828919633458</v>
+        <v>0.69869784743399344</v>
       </c>
       <c r="I110" s="134">
         <f t="shared" si="8"/>
-        <v>0.6647304730473047</v>
+        <v>0.75282728272827271</v>
       </c>
       <c r="J110" s="134">
         <f t="shared" si="8"/>
-        <v>0.58037803780378039</v>
+        <v>0.67710771077107723</v>
       </c>
       <c r="K110" s="140">
         <f t="shared" si="8"/>
-        <v>0.60031683168316841</v>
+        <v>0.69036435643564364</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -36644,31 +36644,31 @@
       </c>
       <c r="E111" s="135">
         <f t="shared" si="8"/>
-        <v>0.58009869326166719</v>
+        <v>0.64116171360500052</v>
       </c>
       <c r="F111" s="135">
         <f t="shared" si="8"/>
-        <v>0.5554744153660649</v>
+        <v>0.63804493656912853</v>
       </c>
       <c r="G111" s="135">
         <f t="shared" si="8"/>
-        <v>0.5274269313723825</v>
+        <v>0.58083725353667437</v>
       </c>
       <c r="H111" s="135">
         <f t="shared" si="8"/>
-        <v>0.61666003871242925</v>
+        <v>0.69007194808295658</v>
       </c>
       <c r="I111" s="135">
         <f t="shared" si="8"/>
-        <v>0.612933293329333</v>
+        <v>0.6941654165416542</v>
       </c>
       <c r="J111" s="135">
         <f t="shared" si="8"/>
-        <v>0.62718271827182714</v>
+        <v>0.73171317131713165</v>
       </c>
       <c r="K111" s="142">
         <f t="shared" si="8"/>
-        <v>0.56757227722772285</v>
+        <v>0.65270811881188118</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -36687,31 +36687,31 @@
       </c>
       <c r="E112" s="134">
         <f t="shared" si="8"/>
-        <v>0.58009869326166719</v>
+        <v>0.64116171360500052</v>
       </c>
       <c r="F112" s="134">
         <f t="shared" si="8"/>
-        <v>0.5554744153660649</v>
+        <v>0.63804493656912853</v>
       </c>
       <c r="G112" s="134">
         <f t="shared" si="8"/>
-        <v>0.5274269313723825</v>
+        <v>0.58083725353667437</v>
       </c>
       <c r="H112" s="134">
         <f t="shared" si="8"/>
-        <v>0.61666003871242925</v>
+        <v>0.69007194808295658</v>
       </c>
       <c r="I112" s="134">
         <f t="shared" si="8"/>
-        <v>0.612933293329333</v>
+        <v>0.6941654165416542</v>
       </c>
       <c r="J112" s="134">
         <f t="shared" si="8"/>
-        <v>0.58037803780378039</v>
+        <v>0.67710771077107723</v>
       </c>
       <c r="K112" s="140">
         <f t="shared" si="8"/>
-        <v>0.54574257425742556</v>
+        <v>0.62760396039603938</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -36730,31 +36730,31 @@
       </c>
       <c r="E113" s="135">
         <f t="shared" si="8"/>
-        <v>0.58009869326166719</v>
+        <v>0.64116171360500052</v>
       </c>
       <c r="F113" s="135">
         <f t="shared" si="8"/>
-        <v>0.5554744153660649</v>
+        <v>0.63804493656912853</v>
       </c>
       <c r="G113" s="135">
         <f t="shared" si="8"/>
-        <v>0.53998471545267723</v>
+        <v>0.59466671195421417</v>
       </c>
       <c r="H113" s="135">
         <f t="shared" si="8"/>
-        <v>0.61666003871242925</v>
+        <v>0.69007194808295658</v>
       </c>
       <c r="I113" s="135">
         <f t="shared" si="8"/>
-        <v>0.612933293329333</v>
+        <v>0.6941654165416542</v>
       </c>
       <c r="J113" s="135">
         <f t="shared" si="8"/>
-        <v>0.58037803780378039</v>
+        <v>0.67710771077107723</v>
       </c>
       <c r="K113" s="142">
         <f t="shared" si="8"/>
-        <v>0.54574257425742556</v>
+        <v>0.62760396039603938</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -36773,31 +36773,31 @@
       </c>
       <c r="E114" s="134">
         <f t="shared" si="8"/>
-        <v>0.58009869326166719</v>
+        <v>0.64116171360500052</v>
       </c>
       <c r="F114" s="134">
         <f t="shared" si="8"/>
-        <v>0.54893942224411119</v>
+        <v>0.63053852555066825</v>
       </c>
       <c r="G114" s="134">
         <f t="shared" si="8"/>
-        <v>0.51486914729208766</v>
+        <v>0.56700779511913446</v>
       </c>
       <c r="H114" s="134">
         <f t="shared" si="8"/>
-        <v>0.58582703677680759</v>
+        <v>0.65556835067880859</v>
       </c>
       <c r="I114" s="134">
         <f t="shared" si="8"/>
-        <v>0.62156615661566139</v>
+        <v>0.70394239423942384</v>
       </c>
       <c r="J114" s="134">
         <f t="shared" si="8"/>
-        <v>0.60846084608460849</v>
+        <v>0.70987098709870999</v>
       </c>
       <c r="K114" s="140">
         <f t="shared" si="8"/>
-        <v>0.65489108910891092</v>
+        <v>0.75312475247524746</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -36816,31 +36816,31 @@
       </c>
       <c r="E115" s="135">
         <f t="shared" ref="E115:K130" si="9">E258*E$140</f>
-        <v>0.58009869326166719</v>
+        <v>0.64116171360500052</v>
       </c>
       <c r="F115" s="135">
         <f t="shared" si="9"/>
-        <v>0.58814938097583336</v>
+        <v>0.67557699166143026</v>
       </c>
       <c r="G115" s="135">
         <f t="shared" si="9"/>
-        <v>0.5588213915731195</v>
+        <v>0.61541089958052397</v>
       </c>
       <c r="H115" s="135">
         <f t="shared" si="9"/>
-        <v>0.67061779209976669</v>
+        <v>0.75045324354021503</v>
       </c>
       <c r="I115" s="135">
         <f t="shared" si="9"/>
-        <v>0.73379337933793365</v>
+        <v>0.83104310431043094</v>
       </c>
       <c r="J115" s="135">
         <f t="shared" si="9"/>
-        <v>0.74887488748874886</v>
+        <v>0.87368736873687369</v>
       </c>
       <c r="K115" s="142">
         <f t="shared" si="9"/>
-        <v>0.86227326732673282</v>
+        <v>0.99161425742574272</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -36859,31 +36859,31 @@
       </c>
       <c r="E116" s="134">
         <f t="shared" si="9"/>
-        <v>0.58009869326166719</v>
+        <v>0.64116171360500052</v>
       </c>
       <c r="F116" s="134">
         <f t="shared" si="9"/>
-        <v>0.58814938097583336</v>
+        <v>0.67557699166143026</v>
       </c>
       <c r="G116" s="134">
         <f t="shared" si="9"/>
-        <v>0.5588213915731195</v>
+        <v>0.61541089958052397</v>
       </c>
       <c r="H116" s="134">
         <f t="shared" si="9"/>
-        <v>0.67061779209976669</v>
+        <v>0.75045324354021503</v>
       </c>
       <c r="I116" s="134">
         <f t="shared" si="9"/>
-        <v>0.73379337933793365</v>
+        <v>0.83104310431043094</v>
       </c>
       <c r="J116" s="134">
         <f t="shared" si="9"/>
-        <v>0.74887488748874886</v>
+        <v>0.87368736873687369</v>
       </c>
       <c r="K116" s="140">
         <f t="shared" si="9"/>
-        <v>0.86227326732673282</v>
+        <v>0.99161425742574272</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -36902,31 +36902,31 @@
       </c>
       <c r="E117" s="135">
         <f t="shared" si="9"/>
-        <v>0.58009869326166719</v>
+        <v>0.64116171360500052</v>
       </c>
       <c r="F117" s="135">
         <f t="shared" si="9"/>
-        <v>0.54186253358879122</v>
+        <v>0.62240966696009803</v>
       </c>
       <c r="G117" s="135">
         <f t="shared" si="9"/>
-        <v>0.47374600253650945</v>
+        <v>0.52172028127438375</v>
       </c>
       <c r="H117" s="135">
         <f t="shared" si="9"/>
-        <v>0.5221607431135179</v>
+        <v>0.58432273634131759</v>
       </c>
       <c r="I117" s="135">
         <f t="shared" si="9"/>
-        <v>0.51795543374187747</v>
+        <v>0.58660012977995768</v>
       </c>
       <c r="J117" s="135">
         <f t="shared" si="9"/>
-        <v>0.4905232616100712</v>
+        <v>0.57227713854508311</v>
       </c>
       <c r="K117" s="142">
         <f t="shared" si="9"/>
-        <v>0.5348277227722773</v>
+        <v>0.61505188118811882</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -36945,31 +36945,31 @@
       </c>
       <c r="E118" s="134">
         <f t="shared" si="9"/>
-        <v>0.61308017594212239</v>
+        <v>0.67761493130445105</v>
       </c>
       <c r="F118" s="134">
         <f t="shared" si="9"/>
-        <v>0.59458275084129053</v>
+        <v>0.68296667326364446</v>
       </c>
       <c r="G118" s="134">
         <f t="shared" si="9"/>
-        <v>0.54300340620523901</v>
+        <v>0.59799109290956698</v>
       </c>
       <c r="H118" s="134">
         <f t="shared" si="9"/>
-        <v>0.62811498200173832</v>
+        <v>0.70289057509718333</v>
       </c>
       <c r="I118" s="134">
         <f t="shared" si="9"/>
-        <v>0.65714939087436608</v>
+        <v>0.74424147882157121</v>
       </c>
       <c r="J118" s="134">
         <f t="shared" si="9"/>
-        <v>0.65999701737857963</v>
+        <v>0.76999652027500953</v>
       </c>
       <c r="K118" s="140">
         <f t="shared" si="9"/>
-        <v>0.70668820303874091</v>
+        <v>0.81269143349455197</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -36988,31 +36988,31 @@
       </c>
       <c r="E119" s="135">
         <f t="shared" si="9"/>
-        <v>0.58009869326166719</v>
+        <v>0.64116171360500052</v>
       </c>
       <c r="F119" s="135">
         <f t="shared" si="9"/>
-        <v>0.5554744153660649</v>
+        <v>0.63804493656912853</v>
       </c>
       <c r="G119" s="135">
         <f t="shared" si="9"/>
-        <v>0.5274269313723825</v>
+        <v>0.58083725353667437</v>
       </c>
       <c r="H119" s="135">
         <f t="shared" si="9"/>
-        <v>0.61666003871242925</v>
+        <v>0.69007194808295658</v>
       </c>
       <c r="I119" s="135">
         <f t="shared" si="9"/>
-        <v>0.612933293329333</v>
+        <v>0.6941654165416542</v>
       </c>
       <c r="J119" s="135">
         <f t="shared" si="9"/>
-        <v>0.58037803780378039</v>
+        <v>0.67710771077107723</v>
       </c>
       <c r="K119" s="142">
         <f t="shared" si="9"/>
-        <v>0.60031683168316841</v>
+        <v>0.69036435643564364</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -37031,31 +37031,31 @@
       </c>
       <c r="E120" s="134">
         <f t="shared" si="9"/>
-        <v>0.58009869326166719</v>
+        <v>0.64116171360500052</v>
       </c>
       <c r="F120" s="134">
         <f t="shared" si="9"/>
-        <v>0.5554744153660649</v>
+        <v>0.63804493656912853</v>
       </c>
       <c r="G120" s="134">
         <f t="shared" si="9"/>
-        <v>0.5274269313723825</v>
+        <v>0.58083725353667437</v>
       </c>
       <c r="H120" s="134">
         <f t="shared" si="9"/>
-        <v>0.61666003871242925</v>
+        <v>0.69007194808295658</v>
       </c>
       <c r="I120" s="134">
         <f t="shared" si="9"/>
-        <v>0.612933293329333</v>
+        <v>0.6941654165416542</v>
       </c>
       <c r="J120" s="134">
         <f t="shared" si="9"/>
-        <v>0.58037803780378039</v>
+        <v>0.67710771077107723</v>
       </c>
       <c r="K120" s="140">
         <f t="shared" si="9"/>
-        <v>0.60031683168316841</v>
+        <v>0.69036435643564364</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -37074,31 +37074,31 @@
       </c>
       <c r="E121" s="135">
         <f t="shared" si="9"/>
-        <v>0.58009869326166719</v>
+        <v>0.64116171360500052</v>
       </c>
       <c r="F121" s="135">
         <f t="shared" si="9"/>
-        <v>0.5554744153660649</v>
+        <v>0.63804493656912853</v>
       </c>
       <c r="G121" s="135">
         <f t="shared" si="9"/>
-        <v>0.5274269313723825</v>
+        <v>0.58083725353667437</v>
       </c>
       <c r="H121" s="135">
         <f t="shared" si="9"/>
-        <v>0.61666003871242925</v>
+        <v>0.69007194808295658</v>
       </c>
       <c r="I121" s="135">
         <f t="shared" si="9"/>
-        <v>0.612933293329333</v>
+        <v>0.6941654165416542</v>
       </c>
       <c r="J121" s="135">
         <f t="shared" si="9"/>
-        <v>0.58037803780378039</v>
+        <v>0.67710771077107723</v>
       </c>
       <c r="K121" s="142">
         <f t="shared" si="9"/>
-        <v>0.60031683168316841</v>
+        <v>0.69036435643564364</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37117,31 +37117,31 @@
       </c>
       <c r="E122" s="147">
         <f t="shared" si="9"/>
-        <v>0.58009869326166719</v>
+        <v>0.64116171360500052</v>
       </c>
       <c r="F122" s="147">
         <f t="shared" si="9"/>
-        <v>0.5554744153660649</v>
+        <v>0.63804493656912853</v>
       </c>
       <c r="G122" s="147">
         <f t="shared" si="9"/>
-        <v>0.5274269313723825</v>
+        <v>0.58083725353667437</v>
       </c>
       <c r="H122" s="147">
         <f t="shared" si="9"/>
-        <v>0.61666003871242925</v>
+        <v>0.69007194808295658</v>
       </c>
       <c r="I122" s="147">
         <f t="shared" si="9"/>
-        <v>0.612933293329333</v>
+        <v>0.6941654165416542</v>
       </c>
       <c r="J122" s="147">
         <f t="shared" si="9"/>
-        <v>0.58037803780378039</v>
+        <v>0.67710771077107723</v>
       </c>
       <c r="K122" s="161">
         <f t="shared" si="9"/>
-        <v>0.60031683168316841</v>
+        <v>0.69036435643564364</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -37160,31 +37160,31 @@
       </c>
       <c r="E123" s="137">
         <f t="shared" si="9"/>
-        <v>0.61953365147835526</v>
+        <v>0.68474772005502416</v>
       </c>
       <c r="F123" s="137">
         <f t="shared" si="9"/>
-        <v>0.58814938097583336</v>
+        <v>0.67557699166143026</v>
       </c>
       <c r="G123" s="137">
         <f t="shared" si="9"/>
-        <v>0.50231136321179293</v>
+        <v>0.55317833670159466</v>
       </c>
       <c r="H123" s="137">
         <f t="shared" si="9"/>
-        <v>0.53957753387337559</v>
+        <v>0.60381295457258688</v>
       </c>
       <c r="I123" s="137">
         <f t="shared" si="9"/>
-        <v>0.51797179717971797</v>
+        <v>0.58661866186618661</v>
       </c>
       <c r="J123" s="137">
         <f t="shared" si="9"/>
-        <v>0.51485148514851486</v>
+        <v>0.60066006600660071</v>
       </c>
       <c r="K123" s="138">
         <f t="shared" si="9"/>
-        <v>0.43659405940594065</v>
+        <v>0.50208316831683175</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -37203,31 +37203,31 @@
       </c>
       <c r="E124" s="134">
         <f t="shared" si="9"/>
-        <v>0.59371974933342386</v>
+        <v>0.65621656505273163</v>
       </c>
       <c r="F124" s="134">
         <f t="shared" si="9"/>
-        <v>0.49665947726848153</v>
+        <v>0.57048723740298557</v>
       </c>
       <c r="G124" s="134">
         <f t="shared" si="9"/>
-        <v>0.47719579505120324</v>
+        <v>0.52551941986651496</v>
       </c>
       <c r="H124" s="134">
         <f t="shared" si="9"/>
-        <v>0.53957753387337559</v>
+        <v>0.60381295457258688</v>
       </c>
       <c r="I124" s="134">
         <f t="shared" si="9"/>
-        <v>0.51797179717971797</v>
+        <v>0.58661866186618661</v>
       </c>
       <c r="J124" s="134">
         <f t="shared" si="9"/>
-        <v>0.51485148514851486</v>
+        <v>0.60066006600660071</v>
       </c>
       <c r="K124" s="140">
         <f t="shared" si="9"/>
-        <v>0.43659405940594065</v>
+        <v>0.50208316831683175</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -37246,31 +37246,31 @@
       </c>
       <c r="E125" s="135">
         <f t="shared" si="9"/>
-        <v>0.61953365147835526</v>
+        <v>0.68474772005502416</v>
       </c>
       <c r="F125" s="135">
         <f t="shared" si="9"/>
-        <v>0.58814938097583336</v>
+        <v>0.67557699166143026</v>
       </c>
       <c r="G125" s="135">
         <f t="shared" si="9"/>
-        <v>0.37673352240884461</v>
+        <v>0.41488375252619597</v>
       </c>
       <c r="H125" s="135">
         <f t="shared" si="9"/>
-        <v>0.44707852806651116</v>
+        <v>0.50030216236014347</v>
       </c>
       <c r="I125" s="135">
         <f t="shared" si="9"/>
-        <v>0.43164316431643157</v>
+        <v>0.48884888488848877</v>
       </c>
       <c r="J125" s="135">
         <f t="shared" si="9"/>
-        <v>0.42124212421242124</v>
+        <v>0.49144914491449149</v>
       </c>
       <c r="K125" s="142">
         <f t="shared" si="9"/>
-        <v>0.54574257425742556</v>
+        <v>0.62760396039603938</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -37289,31 +37289,31 @@
       </c>
       <c r="E126" s="134">
         <f t="shared" si="9"/>
-        <v>0.61953365147835526</v>
+        <v>0.68474772005502416</v>
       </c>
       <c r="F126" s="134">
         <f t="shared" si="9"/>
-        <v>0.58814938097583336</v>
+        <v>0.67557699166143026</v>
       </c>
       <c r="G126" s="134">
         <f t="shared" si="9"/>
-        <v>0.47719579505120324</v>
+        <v>0.52551941986651496</v>
       </c>
       <c r="H126" s="134">
         <f t="shared" si="9"/>
-        <v>0.53957753387337559</v>
+        <v>0.60381295457258688</v>
       </c>
       <c r="I126" s="134">
         <f t="shared" si="9"/>
-        <v>0.51797179717971797</v>
+        <v>0.58661866186618661</v>
       </c>
       <c r="J126" s="134">
         <f t="shared" si="9"/>
-        <v>0.51485148514851486</v>
+        <v>0.60066006600660071</v>
       </c>
       <c r="K126" s="140">
         <f t="shared" si="9"/>
-        <v>0.43659405940594065</v>
+        <v>0.50208316831683175</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -37332,31 +37332,31 @@
       </c>
       <c r="E127" s="135">
         <f t="shared" si="9"/>
-        <v>0.61953365147835526</v>
+        <v>0.68474772005502416</v>
       </c>
       <c r="F127" s="135">
         <f t="shared" si="9"/>
-        <v>0.62735933970755553</v>
+        <v>0.72061545777219216</v>
       </c>
       <c r="G127" s="135">
         <f t="shared" si="9"/>
-        <v>0.37673352240884461</v>
+        <v>0.41488375252619597</v>
       </c>
       <c r="H127" s="135">
         <f t="shared" si="9"/>
-        <v>0.40082902516307894</v>
+        <v>0.44854676625392165</v>
       </c>
       <c r="I127" s="135">
         <f t="shared" si="9"/>
-        <v>0.36258025802580252</v>
+        <v>0.41063306330633054</v>
       </c>
       <c r="J127" s="135">
         <f t="shared" si="9"/>
-        <v>0.42124212421242124</v>
+        <v>0.49144914491449149</v>
       </c>
       <c r="K127" s="142">
         <f t="shared" si="9"/>
-        <v>0.38201980198019803</v>
+        <v>0.43932277227722771</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -37375,31 +37375,31 @@
       </c>
       <c r="E128" s="134">
         <f t="shared" si="9"/>
-        <v>0.61953365147835526</v>
+        <v>0.68474772005502416</v>
       </c>
       <c r="F128" s="134">
         <f t="shared" si="9"/>
-        <v>0.62735933970755553</v>
+        <v>0.72061545777219216</v>
       </c>
       <c r="G128" s="134">
         <f t="shared" si="9"/>
-        <v>0.58393695973370918</v>
+        <v>0.64306981641560379</v>
       </c>
       <c r="H128" s="134">
         <f t="shared" si="9"/>
-        <v>0.69374254355148279</v>
+        <v>0.77633094159332594</v>
       </c>
       <c r="I128" s="134">
         <f t="shared" si="9"/>
-        <v>0.73379337933793365</v>
+        <v>0.83104310431043094</v>
       </c>
       <c r="J128" s="134">
         <f t="shared" si="9"/>
-        <v>0.74887488748874886</v>
+        <v>0.87368736873687369</v>
       </c>
       <c r="K128" s="140">
         <f t="shared" si="9"/>
-        <v>0.82952871287128727</v>
+        <v>0.95395801980198025</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -37418,31 +37418,31 @@
       </c>
       <c r="E129" s="135">
         <f t="shared" si="9"/>
-        <v>0.61953365147835526</v>
+        <v>0.68474772005502416</v>
       </c>
       <c r="F129" s="135">
         <f t="shared" si="9"/>
-        <v>0.62735933970755553</v>
+        <v>0.72061545777219216</v>
       </c>
       <c r="G129" s="135">
         <f t="shared" si="9"/>
-        <v>0.58393695973370918</v>
+        <v>0.64306981641560379</v>
       </c>
       <c r="H129" s="135">
         <f t="shared" si="9"/>
-        <v>0.69374254355148279</v>
+        <v>0.77633094159332594</v>
       </c>
       <c r="I129" s="135">
         <f t="shared" si="9"/>
-        <v>0.73379337933793365</v>
+        <v>0.83104310431043094</v>
       </c>
       <c r="J129" s="135">
         <f t="shared" si="9"/>
-        <v>0.74887488748874886</v>
+        <v>0.87368736873687369</v>
       </c>
       <c r="K129" s="142">
         <f t="shared" si="9"/>
-        <v>0.82952871287128727</v>
+        <v>0.95395801980198025</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -37461,31 +37461,31 @@
       </c>
       <c r="E130" s="134">
         <f t="shared" si="9"/>
-        <v>0.61953365147835526</v>
+        <v>0.68474772005502416</v>
       </c>
       <c r="F130" s="134">
         <f t="shared" si="9"/>
-        <v>0.62082434658560182</v>
+        <v>0.71310904675373188</v>
       </c>
       <c r="G130" s="134">
         <f t="shared" si="9"/>
-        <v>0.57137917565341445</v>
+        <v>0.62924035799806399</v>
       </c>
       <c r="H130" s="134">
         <f t="shared" si="9"/>
-        <v>0.67061779209976669</v>
+        <v>0.75045324354021503</v>
       </c>
       <c r="I130" s="134">
         <f t="shared" si="9"/>
-        <v>0.69062906290629056</v>
+        <v>0.78215821582158207</v>
       </c>
       <c r="J130" s="134">
         <f t="shared" si="9"/>
-        <v>0.702070207020702</v>
+        <v>0.81908190819081894</v>
       </c>
       <c r="K130" s="140">
         <f t="shared" si="9"/>
-        <v>0.76403960396039605</v>
+        <v>0.87864554455445543</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -37504,31 +37504,31 @@
       </c>
       <c r="E131" s="135">
         <f t="shared" ref="E131:K131" si="10">E274*E$140</f>
-        <v>0.61953365147835526</v>
+        <v>0.68474772005502416</v>
       </c>
       <c r="F131" s="135">
         <f t="shared" si="10"/>
-        <v>0.62082434658560182</v>
+        <v>0.71310904675373188</v>
       </c>
       <c r="G131" s="135">
         <f t="shared" si="10"/>
-        <v>0.57137917565341445</v>
+        <v>0.62924035799806399</v>
       </c>
       <c r="H131" s="135">
         <f t="shared" si="10"/>
-        <v>0.67061779209976669</v>
+        <v>0.75045324354021503</v>
       </c>
       <c r="I131" s="135">
         <f t="shared" si="10"/>
-        <v>0.69062906290629056</v>
+        <v>0.78215821582158207</v>
       </c>
       <c r="J131" s="135">
         <f t="shared" si="10"/>
-        <v>0.702070207020702</v>
+        <v>0.81908190819081894</v>
       </c>
       <c r="K131" s="142">
         <f t="shared" si="10"/>
-        <v>0.76403960396039605</v>
+        <v>0.87864554455445543</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -37547,31 +37547,31 @@
       </c>
       <c r="E132" s="134">
         <f t="shared" ref="E132:K132" si="12">E275*E$140</f>
-        <v>0.61308017594212239</v>
+        <v>0.67761493130445105</v>
       </c>
       <c r="F132" s="134">
         <f t="shared" si="12"/>
-        <v>0.59458275084129053</v>
+        <v>0.68296667326364446</v>
       </c>
       <c r="G132" s="134">
         <f t="shared" si="12"/>
-        <v>0.54300340620523901</v>
+        <v>0.59799109290956698</v>
       </c>
       <c r="H132" s="134">
         <f t="shared" si="12"/>
-        <v>0.62811498200173832</v>
+        <v>0.70289057509718333</v>
       </c>
       <c r="I132" s="134">
         <f t="shared" si="12"/>
-        <v>0.65714939087436608</v>
+        <v>0.74424147882157121</v>
       </c>
       <c r="J132" s="134">
         <f t="shared" si="12"/>
-        <v>0.65999701737857963</v>
+        <v>0.76999652027500953</v>
       </c>
       <c r="K132" s="140">
         <f t="shared" si="12"/>
-        <v>0.70668820303874091</v>
+        <v>0.81269143349455197</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -37590,31 +37590,31 @@
       </c>
       <c r="E133" s="135">
         <f t="shared" ref="E133:K133" si="13">E276*E$140</f>
-        <v>0.61308017594212239</v>
+        <v>0.67761493130445105</v>
       </c>
       <c r="F133" s="135">
         <f t="shared" si="13"/>
-        <v>0.59458275084129053</v>
+        <v>0.68296667326364446</v>
       </c>
       <c r="G133" s="135">
         <f t="shared" si="13"/>
-        <v>0.54300340620523901</v>
+        <v>0.59799109290956698</v>
       </c>
       <c r="H133" s="135">
         <f t="shared" si="13"/>
-        <v>0.62811498200173832</v>
+        <v>0.70289057509718333</v>
       </c>
       <c r="I133" s="135">
         <f t="shared" si="13"/>
-        <v>0.65714939087436608</v>
+        <v>0.74424147882157121</v>
       </c>
       <c r="J133" s="135">
         <f t="shared" si="13"/>
-        <v>0.65999701737857963</v>
+        <v>0.76999652027500953</v>
       </c>
       <c r="K133" s="142">
         <f t="shared" si="13"/>
-        <v>0.70668820303874091</v>
+        <v>0.81269143349455197</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -37633,31 +37633,31 @@
       </c>
       <c r="E134" s="134">
         <f t="shared" ref="E134:K134" si="14">E277*E$140</f>
-        <v>0.61953365147835526</v>
+        <v>0.68474772005502416</v>
       </c>
       <c r="F134" s="134">
         <f t="shared" si="14"/>
-        <v>0.62735933970755553</v>
+        <v>0.72061545777219216</v>
       </c>
       <c r="G134" s="134">
         <f t="shared" si="14"/>
-        <v>0.58393695973370918</v>
+        <v>0.64306981641560379</v>
       </c>
       <c r="H134" s="134">
         <f t="shared" si="14"/>
-        <v>0.69374254355148279</v>
+        <v>0.77633094159332594</v>
       </c>
       <c r="I134" s="134">
         <f t="shared" si="14"/>
-        <v>0.73379337933793365</v>
+        <v>0.83104310431043094</v>
       </c>
       <c r="J134" s="134">
         <f t="shared" si="14"/>
-        <v>0.74887488748874886</v>
+        <v>0.87368736873687369</v>
       </c>
       <c r="K134" s="140">
         <f t="shared" si="14"/>
-        <v>0.82952871287128727</v>
+        <v>0.95395801980198025</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -37676,31 +37676,31 @@
       </c>
       <c r="E135" s="135">
         <f t="shared" ref="E135:K135" si="15">E278*E$140</f>
-        <v>0.61953365147835526</v>
+        <v>0.68474772005502416</v>
       </c>
       <c r="F135" s="135">
         <f t="shared" si="15"/>
-        <v>0.62735933970755553</v>
+        <v>0.72061545777219216</v>
       </c>
       <c r="G135" s="135">
         <f t="shared" si="15"/>
-        <v>0.58393695973370918</v>
+        <v>0.64306981641560379</v>
       </c>
       <c r="H135" s="135">
         <f t="shared" si="15"/>
-        <v>0.69374254355148279</v>
+        <v>0.77633094159332594</v>
       </c>
       <c r="I135" s="135">
         <f t="shared" si="15"/>
-        <v>0.73379337933793365</v>
+        <v>0.83104310431043094</v>
       </c>
       <c r="J135" s="135">
         <f t="shared" si="15"/>
-        <v>0.74887488748874886</v>
+        <v>0.87368736873687369</v>
       </c>
       <c r="K135" s="142">
         <f t="shared" si="15"/>
-        <v>0.82952871287128727</v>
+        <v>0.95395801980198025</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -37719,31 +37719,31 @@
       </c>
       <c r="E136" s="134">
         <f t="shared" ref="E136:K136" si="16">E279*E$140</f>
-        <v>0.61953365147835526</v>
+        <v>0.68474772005502416</v>
       </c>
       <c r="F136" s="134">
         <f t="shared" si="16"/>
-        <v>0.62735933970755553</v>
+        <v>0.72061545777219216</v>
       </c>
       <c r="G136" s="134">
         <f t="shared" si="16"/>
-        <v>0.58393695973370918</v>
+        <v>0.64306981641560379</v>
       </c>
       <c r="H136" s="134">
         <f t="shared" si="16"/>
-        <v>0.69374254355148279</v>
+        <v>0.77633094159332594</v>
       </c>
       <c r="I136" s="134">
         <f t="shared" si="16"/>
-        <v>0.73379337933793365</v>
+        <v>0.83104310431043094</v>
       </c>
       <c r="J136" s="134">
         <f t="shared" si="16"/>
-        <v>0.74887488748874886</v>
+        <v>0.87368736873687369</v>
       </c>
       <c r="K136" s="140">
         <f t="shared" si="16"/>
-        <v>0.82952871287128727</v>
+        <v>0.95395801980198025</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37762,31 +37762,31 @@
       </c>
       <c r="E137" s="144">
         <f t="shared" ref="E137:K137" si="17">E280*E$140</f>
-        <v>0.61953365147835526</v>
+        <v>0.68474772005502416</v>
       </c>
       <c r="F137" s="144">
         <f t="shared" si="17"/>
-        <v>0.62735933970755553</v>
+        <v>0.72061545777219216</v>
       </c>
       <c r="G137" s="144">
         <f t="shared" si="17"/>
-        <v>0.58393695973370918</v>
+        <v>0.64306981641560379</v>
       </c>
       <c r="H137" s="144">
         <f t="shared" si="17"/>
-        <v>0.69374254355148279</v>
+        <v>0.77633094159332594</v>
       </c>
       <c r="I137" s="144">
         <f t="shared" si="17"/>
-        <v>0.73379337933793365</v>
+        <v>0.83104310431043094</v>
       </c>
       <c r="J137" s="144">
         <f t="shared" si="17"/>
-        <v>0.74887488748874886</v>
+        <v>0.87368736873687369</v>
       </c>
       <c r="K137" s="145">
         <f t="shared" si="17"/>
-        <v>0.82952871287128727</v>
+        <v>0.95395801980198025</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -37796,31 +37796,31 @@
       </c>
       <c r="E139" s="134">
         <f>AVERAGE(E3:E137)</f>
-        <v>0.57289954163929402</v>
+        <v>0.63320475654869479</v>
       </c>
       <c r="F139" s="134">
         <f t="shared" ref="F139:K139" si="18">AVERAGE(F3:F137)</f>
-        <v>0.54538106060085612</v>
+        <v>0.62645121825774008</v>
       </c>
       <c r="G139" s="134">
         <f t="shared" si="18"/>
-        <v>0.49647813558882786</v>
+        <v>0.54675440248389873</v>
       </c>
       <c r="H139" s="134">
         <f t="shared" si="18"/>
-        <v>0.58323694124692238</v>
+        <v>0.65266991044298583</v>
       </c>
       <c r="I139" s="134">
         <f t="shared" si="18"/>
-        <v>0.62210134253650529</v>
+        <v>0.70454850841483618</v>
       </c>
       <c r="J139" s="134">
         <f t="shared" si="18"/>
-        <v>0.62510267615777171</v>
+        <v>0.72928645551739946</v>
       </c>
       <c r="K139" s="134">
         <f t="shared" si="18"/>
-        <v>0.67545151426076322</v>
+        <v>0.77676924139987691</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -37828,25 +37828,25 @@
         <v>1</v>
       </c>
       <c r="E140">
-        <v>0.76</v>
+        <v>0.84</v>
       </c>
       <c r="F140">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="G140">
-        <v>0.79</v>
+        <v>0.87</v>
       </c>
       <c r="H140">
-        <v>0.84</v>
+        <v>0.94</v>
       </c>
       <c r="I140">
-        <v>0.83</v>
+        <v>0.94</v>
       </c>
       <c r="J140">
-        <v>0.9</v>
+        <v>1.05</v>
       </c>
       <c r="K140">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -41780,7 +41780,7 @@
   <sheetPr codeName="Tabelle8"/>
   <dimension ref="A1:AG150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J29" sqref="J29"/>
       <selection pane="topRight" activeCell="J29" sqref="J29"/>
